--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail14 Features.xlsx
@@ -936,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,29 +947,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -990,115 +988,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1115,72 +1103,66 @@
         <v>6.611037125267313e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2960386942826526</v>
+        <v>2.925387018088701e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.8173313392412078</v>
+        <v>3.616622651071016e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.925387018088701e-07</v>
+        <v>0.05185821128085447</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.616622651071016e-06</v>
+        <v>0.2497122494807857</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05185821128085447</v>
+        <v>0.06499394309033275</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2497122494807857</v>
+        <v>1.489753580453666</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06499394309033275</v>
+        <v>1.473343111790097</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.395164435733771</v>
+        <v>3.991136674182265</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.473343111790097</v>
+        <v>9.69673344036293e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.991136674182265</v>
+        <v>25435746.12809402</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.69673344036293e-15</v>
+        <v>3.928353517896336e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>25435746.12809402</v>
+        <v>6.273565267054784</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.928353517896336e-06</v>
+        <v>0.0001205153677448371</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.273565267054784</v>
+        <v>7.979291363781912</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001205153677448371</v>
+        <v>1.410806878050092</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.979291363781912</v>
+        <v>0.007673103875848411</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.410806878050092</v>
+        <v>3.023223142012234</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007673103875848411</v>
+        <v>0.9358272671747019</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.023223142012234</v>
+        <v>1.906038708648196</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9358272671747019</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.906038708648196</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2208623706452352</v>
       </c>
     </row>
@@ -1195,72 +1177,66 @@
         <v>6.404878246049694e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3459903160550353</v>
+        <v>2.340582043606599e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9275004667230773</v>
+        <v>3.619602542182309e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.340582043606599e-07</v>
+        <v>0.04008196807251284</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.619602542182309e-06</v>
+        <v>0.2324194262224874</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04008196807251284</v>
+        <v>0.05556816207015675</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2324194262224874</v>
+        <v>1.490453610993708</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05556816207015675</v>
+        <v>1.457945325142293</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.391956293615209</v>
+        <v>3.950369234290578</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.457945325142293</v>
+        <v>9.897904905769965e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.950369234290578</v>
+        <v>24888518.05172734</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.897904905769965e-15</v>
+        <v>4.005985100693306e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>24888518.05172734</v>
+        <v>6.131141693357715</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.005985100693306e-06</v>
+        <v>0.0001168825936059574</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.131141693357715</v>
+        <v>7.579890969458559</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001168825936059574</v>
+        <v>1.400997279377657</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.579890969458559</v>
+        <v>0.006715459857060212</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.400997279377657</v>
+        <v>3.059147686229601</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006715459857060212</v>
+        <v>0.9365095372214624</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.059147686229601</v>
+        <v>1.907803807676011</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9365095372214624</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.907803807676011</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2238529115104116</v>
       </c>
     </row>
@@ -1275,72 +1251,66 @@
         <v>6.36257910025114e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2936097122246628</v>
+        <v>2.19062118451013e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9544453283712429</v>
+        <v>3.621811621202801e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.19062118451013e-07</v>
+        <v>0.03016064968466647</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.621811621202801e-06</v>
+        <v>0.2079736310411929</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03016064968466647</v>
+        <v>0.04410949035619806</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2079736310411929</v>
+        <v>1.549051731137611</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04410949035619806</v>
+        <v>1.493408546968419</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.446716640517204</v>
+        <v>4.005493819342595</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.493408546968419</v>
+        <v>1.086486058892138e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.005493819342595</v>
+        <v>22054600.62205393</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.086486058892138e-14</v>
+        <v>4.702653588225251e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>22054600.62205393</v>
+        <v>5.284726954117888</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.702653588225251e-06</v>
+        <v>0.0001157461858501637</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.284726954117888</v>
+        <v>6.630481076450524</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001157461858501637</v>
+        <v>1.45773765325505</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.630481076450524</v>
+        <v>0.005088581897038689</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.45773765325505</v>
+        <v>3.207346331940258</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005088581897038689</v>
+        <v>0.9410267923561154</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.207346331940258</v>
+        <v>1.891648057487264</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9410267923561154</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.891648057487264</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2017234868412523</v>
       </c>
     </row>
@@ -1355,72 +1325,66 @@
         <v>6.433427398478859e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2354602621660718</v>
+        <v>2.19062118451013e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.030997112660464</v>
+        <v>3.623631658804501e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.19062118451013e-07</v>
+        <v>0.02865648863772625</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.623631658804501e-06</v>
+        <v>0.202282475053078</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02865648863772625</v>
+        <v>0.04170057531440887</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.202282475053078</v>
+        <v>1.518934869288951</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04170057531440887</v>
+        <v>1.489952993784176</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.428650730294199</v>
+        <v>4.272303952208633</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.489952993784176</v>
+        <v>1.037053874137562e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.272303952208633</v>
+        <v>23183406.25407416</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.037053874137562e-14</v>
+        <v>4.291557803698876e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>23183406.25407416</v>
+        <v>5.573856833367318</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.291557803698876e-06</v>
+        <v>0.0001296238814528688</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.573856833367318</v>
+        <v>7.406418228724794</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001296238814528688</v>
+        <v>1.440605977097729</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.406418228724794</v>
+        <v>0.00711052203268772</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.440605977097729</v>
+        <v>3.128292292085205</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00711052203268772</v>
+        <v>0.9366983056028702</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.128292292085205</v>
+        <v>1.887084078284269</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9366983056028702</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.887084078284269</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.178179072725702</v>
       </c>
     </row>
@@ -1435,72 +1399,66 @@
         <v>6.606467604554258e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2222834147542597</v>
+        <v>2.28747906637266e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.089130016054759</v>
+        <v>3.625612745730993e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.28747906637266e-07</v>
+        <v>0.03210113765983161</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.625612745730993e-06</v>
+        <v>0.2053232931535292</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03210113765983161</v>
+        <v>0.04317388387809117</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2053232931535292</v>
+        <v>1.470294478366704</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04317388387809117</v>
+        <v>1.556470705708531</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.381029835220924</v>
+        <v>3.954053569226996</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.556470705708531</v>
+        <v>1.210711050746843e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.954053569226996</v>
+        <v>20855513.9383079</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.210711050746843e-14</v>
+        <v>4.545994114672838e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>20855513.9383079</v>
+        <v>5.266017518461395</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.545994114672838e-06</v>
+        <v>0.00013588967577064</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.266017518461395</v>
+        <v>9.5735975160284</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.00013588967577064</v>
+        <v>1.208358403347482</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.5735975160284</v>
+        <v>0.01245480100677423</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.208358403347482</v>
+        <v>2.906703634317815</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01245480100677423</v>
+        <v>0.9304447704698736</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.906703634317815</v>
+        <v>1.881727802799777</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9304447704698736</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.881727802799777</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1837964089328913</v>
       </c>
     </row>
@@ -1515,72 +1473,66 @@
         <v>6.854927053230254e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2545700624357685</v>
+        <v>2.48598100177383e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.071561846806058</v>
+        <v>3.627813410262147e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.48598100177383e-07</v>
+        <v>0.03295026815330041</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.627813410262147e-06</v>
+        <v>0.1999829065214991</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03295026815330041</v>
+        <v>0.04107424405066653</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1999829065214991</v>
+        <v>1.44860569113432</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04107424405066653</v>
+        <v>1.503513239090853</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.363089429550298</v>
+        <v>3.729011308754995</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.503513239090853</v>
+        <v>1.361250973077059e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.729011308754995</v>
+        <v>19383949.41121918</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.361250973077059e-14</v>
+        <v>4.891005931817381e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>19383949.41121918</v>
+        <v>5.114730303863255</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.891005931817381e-06</v>
+        <v>0.0001285238097708866</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.114730303863255</v>
+        <v>8.992444973775349</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001285238097708866</v>
+        <v>1.265296320990949</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.992444973775349</v>
+        <v>0.01039295791381837</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.265296320990949</v>
+        <v>3.041129647196165</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01039295791381837</v>
+        <v>0.9275777184027604</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.041129647196165</v>
+        <v>1.869506062249707</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9275777184027604</v>
+        <v>9</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.869506062249707</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1861978335534088</v>
       </c>
     </row>
@@ -1595,72 +1547,66 @@
         <v>7.142807225459376e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3081326922060384</v>
+        <v>2.658130121623849e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.011381312907822</v>
+        <v>3.630108616342316e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.658130121623849e-07</v>
+        <v>0.03276941593919479</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.630108616342316e-06</v>
+        <v>0.1929837002770463</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03276941593919479</v>
+        <v>0.0383077550163549</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1929837002770463</v>
+        <v>1.424199171876802</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0383077550163549</v>
+        <v>1.536514090727307</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.341135799047622</v>
+        <v>3.703955523266817</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.536514090727307</v>
+        <v>1.379729906219248e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.703955523266817</v>
+        <v>19440590.28203504</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.379729906219248e-14</v>
+        <v>4.84874127648716e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>19440590.28203504</v>
+        <v>5.214503613974457</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.84874127648716e-06</v>
+        <v>0.0001180196518106344</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>5.214503613974457</v>
+        <v>7.478340496224711</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001180196518106344</v>
+        <v>1.341497546102312</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.478340496224711</v>
+        <v>0.006600317074982508</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.341497546102312</v>
+        <v>3.187119362125173</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006600317074982508</v>
+        <v>0.9199637257844056</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.187119362125173</v>
+        <v>1.926261187733234</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9199637257844056</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.926261187733234</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1939129922591482</v>
       </c>
     </row>
@@ -1675,72 +1621,66 @@
         <v>7.48867119462508e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3946516029646867</v>
+        <v>2.957515324332092e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8708342739269219</v>
+        <v>3.632530964723943e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.957515324332092e-07</v>
+        <v>0.03396812034270244</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.632530964723943e-06</v>
+        <v>0.1884384154736216</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03396812034270244</v>
+        <v>0.03663994158414569</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1884384154736216</v>
+        <v>1.432073257505675</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03663994158414569</v>
+        <v>1.581851752440843</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.346667828748633</v>
+        <v>3.78627573888031</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.581851752440843</v>
+        <v>1.550121797495113e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.78627573888031</v>
+        <v>17693879.23549278</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.550121797495113e-14</v>
+        <v>5.416430408356493e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>17693879.23549278</v>
+        <v>4.853018432716413</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.416430408356493e-06</v>
+        <v>0.0001151087173140606</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>4.853018432716413</v>
+        <v>7.325162499954605</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001151087173140606</v>
+        <v>1.395577045800779</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.325162499954605</v>
+        <v>0.006176504204087433</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.395577045800779</v>
+        <v>3.152311060689199</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006176504204087433</v>
+        <v>0.9175659594626573</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.152311060689199</v>
+        <v>1.917391942075664</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9175659594626573</v>
+        <v>7</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.917391942075664</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2087486326138982</v>
       </c>
     </row>
@@ -1755,72 +1695,66 @@
         <v>7.960055297502995e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5576970494451432</v>
+        <v>3.468237295828334e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4915660778897748</v>
+        <v>3.635269784241242e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.468237295828334e-07</v>
+        <v>0.03750168097520796</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.635269784241242e-06</v>
+        <v>0.1908584156848525</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03750168097520796</v>
+        <v>0.03778673884813762</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1908584156848525</v>
+        <v>1.420695516691096</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03778673884813762</v>
+        <v>1.528548252403314</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.336430495265176</v>
+        <v>3.753349399223861</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.528548252403314</v>
+        <v>1.7913243653173e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.753349399223861</v>
+        <v>15388606.66144941</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.7913243653173e-14</v>
+        <v>6.17031032444352e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>15388606.66144941</v>
+        <v>4.24202116726779</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.17031032444352e-06</v>
+        <v>0.0001165853491797143</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.24202116726779</v>
+        <v>7.191208847171434</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001165853491797143</v>
+        <v>1.334265786428059</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.191208847171434</v>
+        <v>0.006029034669141592</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.334265786428059</v>
+        <v>3.154111920449416</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006029034669141592</v>
+        <v>0.9161812640810192</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.154111920449416</v>
+        <v>1.901444220634596</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9161812640810192</v>
+        <v>4</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.901444220634596</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2002842552784174</v>
       </c>
     </row>
@@ -1835,72 +1769,66 @@
         <v>8.646847483635561e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8403988373842243</v>
+        <v>4.115792153393711e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.3539049628501241</v>
+        <v>3.638559902247301e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.115792153393711e-07</v>
+        <v>0.04193200455527745</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.638559902247301e-06</v>
+        <v>0.1952118299680912</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.04193200455527745</v>
+        <v>0.03982551562070829</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1952118299680912</v>
+        <v>1.38295736844186</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03982551562070829</v>
+        <v>1.490431899393299</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.302141595262001</v>
+        <v>3.730201770689017</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.490431899393299</v>
+        <v>1.813625338848073e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.730201770689017</v>
+        <v>15584355.17297234</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.813625338848073e-14</v>
+        <v>5.98085882959519e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>15584355.17297234</v>
+        <v>4.404790420988753</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.98085882959519e-06</v>
+        <v>0.000126953576383742</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4.404790420988753</v>
+        <v>8.339872562007059</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000126953576383742</v>
+        <v>1.307651276332475</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.339872562007059</v>
+        <v>0.008830062318713151</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.307651276332475</v>
+        <v>2.969479403404129</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008830062318713151</v>
+        <v>0.9122219928275684</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.969479403404129</v>
+        <v>1.934620161357588</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9122219928275684</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.934620161357588</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1947194042368885</v>
       </c>
     </row>
@@ -1915,72 +1843,66 @@
         <v>9.573996791010787e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.185926283093899</v>
+        <v>4.726249010923346e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.490938794973463</v>
+        <v>3.642533838810155e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.726249010923346e-07</v>
+        <v>0.04545053523168302</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.642533838810155e-06</v>
+        <v>0.1914387307091797</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.04545053523168302</v>
+        <v>0.03868907121508279</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1914387307091797</v>
+        <v>1.376073661383959</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03868907121508279</v>
+        <v>1.457095540381478</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.294844182866441</v>
+        <v>3.721563991111614</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.457095540381478</v>
+        <v>1.822053986616984e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.721563991111614</v>
+        <v>15605691.5196971</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.822053986616984e-14</v>
+        <v>5.949205272665473e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>15605691.5196971</v>
+        <v>4.437386691976315</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.949205272665473e-06</v>
+        <v>0.0001414411485455999</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4.437386691976315</v>
+        <v>8.934625159304836</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001414411485455999</v>
+        <v>1.297295357490619</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.934625159304836</v>
+        <v>0.01129089706727588</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.297295357490619</v>
+        <v>2.871625708937089</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01129089706727588</v>
+        <v>0.9114831577605735</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.871625708937089</v>
+        <v>1.924561837647309</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9114831577605735</v>
+        <v>6</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.924561837647309</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1797829693077362</v>
       </c>
     </row>
@@ -1995,72 +1917,66 @@
         <v>1.072336341474183e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.497114257329461</v>
+        <v>5.328079076241335e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.487454705629003</v>
+        <v>3.647317179091703e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.328079076241335e-07</v>
+        <v>0.04891751282949882</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.647317179091703e-06</v>
+        <v>0.1834373346642708</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.04891751282949882</v>
+        <v>0.0360224476559242</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1834373346642708</v>
+        <v>1.385464045030222</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0360224476559242</v>
+        <v>1.529059427908635</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.301952328438384</v>
+        <v>3.769797613605146</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.529059427908635</v>
+        <v>1.775726812345558e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.769797613605146</v>
+        <v>15750439.2507352</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.775726812345558e-14</v>
+        <v>6.01570214524736e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>15750439.2507352</v>
+        <v>4.405158023932775</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.01570214524736e-06</v>
+        <v>0.0001456549260498587</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>4.405158023932775</v>
+        <v>8.73808063658964</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001456549260498587</v>
+        <v>1.352002404120013</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.73808063658964</v>
+        <v>0.01112134397413424</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.352002404120013</v>
+        <v>2.904607446942514</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01112134397413424</v>
+        <v>0.9188147047869968</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.904607446942514</v>
+        <v>1.898084037068472</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9188147047869968</v>
+        <v>6</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.898084037068472</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1749287845859355</v>
       </c>
     </row>
@@ -2075,72 +1991,66 @@
         <v>1.207101772493312e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.723974859313343</v>
+        <v>5.879091935309356e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3.112380104573061</v>
+        <v>3.653023763720412e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.879091935309356e-07</v>
+        <v>0.05113862578709529</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.653023763720412e-06</v>
+        <v>0.1711638928732156</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05113862578709529</v>
+        <v>0.03190065419859944</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1711638928732156</v>
+        <v>1.416220802801925</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03190065419859944</v>
+        <v>1.390359553442653</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.328512919052722</v>
+        <v>3.958735730862143</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.390359553442653</v>
+        <v>1.521005127596356e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.958735730862143</v>
+        <v>18117533.08095142</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.521005127596356e-14</v>
+        <v>5.393165022130598e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>18117533.08095142</v>
+        <v>4.992623356206713</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.393165022130598e-06</v>
+        <v>0.0001315901046336052</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>4.992623356206713</v>
+        <v>8.400247996582349</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001315901046336052</v>
+        <v>1.41087473758891</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.400247996582349</v>
+        <v>0.009285546040496776</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.41087473758891</v>
+        <v>2.991579405414994</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.009285546040496776</v>
+        <v>0.922754492329888</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.991579405414994</v>
+        <v>1.904168329344104</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.922754492329888</v>
+        <v>6</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.904168329344104</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1949253274571499</v>
       </c>
     </row>
@@ -2155,72 +2065,66 @@
         <v>1.356137914066286e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.850429813304709</v>
+        <v>6.392927442012833e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>3.306153279924771</v>
+        <v>3.659679442002346e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.392927442012833e-07</v>
+        <v>0.05270899636099381</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.659679442002346e-06</v>
+        <v>0.1576400741971994</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05270899636099381</v>
+        <v>0.02762046070621134</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1576400741971994</v>
+        <v>1.373063398505465</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02762046070621134</v>
+        <v>1.504462480718404</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.297599298022045</v>
+        <v>4.060857918364653</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.504462480718404</v>
+        <v>1.326751487154451e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.060857918364653</v>
+        <v>20808754.16674241</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.326751487154451e-14</v>
+        <v>4.379840506723928e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>20808754.16674241</v>
+        <v>5.74489032594442</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.379840506723928e-06</v>
+        <v>0.0001168336777699267</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.74489032594442</v>
+        <v>7.158238171525029</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001168336777699267</v>
+        <v>1.366142821391945</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.158238171525029</v>
+        <v>0.005986601312045579</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.366142821391945</v>
+        <v>3.167258588513292</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005986601312045579</v>
+        <v>0.9160013810187795</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.167258588513292</v>
+        <v>1.90289093994614</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9160013810187795</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.90289093994614</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.200260123514656</v>
       </c>
     </row>
@@ -2235,72 +2139,66 @@
         <v>1.513077278079352e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.891565506664515</v>
+        <v>6.74351929438796e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3.16325140278235</v>
+        <v>3.667218058737426e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.74351929438796e-07</v>
+        <v>0.05186432073139066</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.667218058737426e-06</v>
+        <v>0.1428540199350993</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.05186432073139066</v>
+        <v>0.02309617852457104</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1428540199350993</v>
+        <v>1.37012819387852</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02309617852457104</v>
+        <v>1.478945787718779</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.291546728633006</v>
+        <v>4.057152732441399</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.478945787718779</v>
+        <v>1.954806067441309e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.057152732441399</v>
+        <v>14356724.48532929</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.954806067441309e-14</v>
+        <v>6.376178012361388e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>14356724.48532929</v>
+        <v>4.029159041740024</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.376178012361388e-06</v>
+        <v>0.0001140576050875178</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>4.029159041740024</v>
+        <v>7.285573706878448</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001140576050875178</v>
+        <v>1.336228287695397</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.285573706878448</v>
+        <v>0.006054130257268335</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.336228287695397</v>
+        <v>3.183138288371215</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.006054130257268335</v>
+        <v>0.9138419059637833</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.183138288371215</v>
+        <v>1.919121510824006</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9138419059637833</v>
+        <v>7</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.919121510824006</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2037842297677087</v>
       </c>
     </row>
@@ -2315,72 +2213,66 @@
         <v>1.663475837423667e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.855548369731282</v>
+        <v>6.843870506037376e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.730799147486792</v>
+        <v>3.675251860887528e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.843870506037376e-07</v>
+        <v>0.04925808080284452</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.675251860887528e-06</v>
+        <v>0.1291645365421797</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04925808080284452</v>
+        <v>0.01910960518027093</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1291645365421797</v>
+        <v>1.326635963101306</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01910960518027093</v>
+        <v>1.457838394448598</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.25536829570285</v>
+        <v>3.841044619122536</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.457838394448598</v>
+        <v>2.180959939131095e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.841044619122536</v>
+        <v>13201812.54548301</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.180959939131095e-14</v>
+        <v>6.698228476287841e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>13201812.54548301</v>
+        <v>3.801148285112338</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.698228476287841e-06</v>
+        <v>0.0001179825298919859</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.801148285112338</v>
+        <v>8.721095729592429</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001179825298919859</v>
+        <v>1.318286203856857</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.721095729592429</v>
+        <v>0.008973457532588765</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.318286203856857</v>
+        <v>3.059195151679056</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008973457532588765</v>
+        <v>0.9063723691836639</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.059195151679056</v>
+        <v>1.912351441843773</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9063723691836639</v>
+        <v>7</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.912351441843773</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2138860978262072</v>
       </c>
     </row>
@@ -2395,72 +2287,66 @@
         <v>1.801066565457016e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.771817602616245</v>
+        <v>6.891173179373829e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.176240285681052</v>
+        <v>3.683619746741628e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.891173179373829e-07</v>
+        <v>0.04750378953150316</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.683619746741628e-06</v>
+        <v>0.1179336725846463</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04750378953150316</v>
+        <v>0.01616452070231683</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1179336725846463</v>
+        <v>1.318824078199415</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01616452070231683</v>
+        <v>1.429942807650749</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.248297219182874</v>
+        <v>3.89561209840351</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.429942807650749</v>
+        <v>2.120288611848681e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.89561209840351</v>
+        <v>13836365.8668109</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.120288611848681e-14</v>
+        <v>6.408788536777891e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>13836365.8668109</v>
+        <v>4.059186965497878</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.408788536777891e-06</v>
+        <v>0.0001193545939548172</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>4.059186965497878</v>
+        <v>9.201072291419734</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001193545939548172</v>
+        <v>1.363424898167085</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.201072291419734</v>
+        <v>0.01010452785505957</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.363424898167085</v>
+        <v>3.119535646939139</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01010452785505957</v>
+        <v>0.9019397016692355</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.119535646939139</v>
+        <v>1.924940323378479</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9019397016692355</v>
+        <v>8</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.924940323378479</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2153760526777685</v>
       </c>
     </row>
@@ -2475,72 +2361,66 @@
         <v>1.92765223027707e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.668629354854134</v>
+        <v>6.924545022600557e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.630938808188175</v>
+        <v>3.692364313605483e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.924545022600557e-07</v>
+        <v>0.04616478257108897</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.692364313605483e-06</v>
+        <v>0.1088582897563809</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04616478257108897</v>
+        <v>0.01398111451933074</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1088582897563809</v>
+        <v>1.304307533018588</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01398111451933074</v>
+        <v>1.409164468225177</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.233220915998389</v>
+        <v>3.998444669267703</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.409164468225177</v>
+        <v>2.01263124875399e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.998444669267703</v>
+        <v>14934712.76078724</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.01263124875399e-14</v>
+        <v>5.989191018232187e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>14934712.76078724</v>
+        <v>4.489086355230546</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.989191018232187e-06</v>
+        <v>0.0001116247371241988</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>4.489086355230546</v>
+        <v>7.965566772226288</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001116247371241988</v>
+        <v>1.441546710061428</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.965566772226288</v>
+        <v>0.007082617923525691</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.441546710061428</v>
+        <v>3.316658415297752</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.007082617923525691</v>
+        <v>0.9005190682303117</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.316658415297752</v>
+        <v>1.919546128824557</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9005190682303117</v>
+        <v>11</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.919546128824557</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2112869097671872</v>
       </c>
     </row>
@@ -2555,72 +2435,66 @@
         <v>2.041416893353215e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.557037835195989</v>
+        <v>6.924545022600557e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.127478884140043</v>
+        <v>3.701336951834949e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.924545022600557e-07</v>
+        <v>0.04410450783948131</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.701336951834949e-06</v>
+        <v>0.1023048461876146</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04410450783948131</v>
+        <v>0.01241122235620234</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1023048461876146</v>
+        <v>1.322366364353018</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01241122235620234</v>
+        <v>1.49166509333965</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.25021062890518</v>
+        <v>4.20292997641369</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.49166509333965</v>
+        <v>1.821554139663085e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.20292997641369</v>
+        <v>16360064.87269322</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.821554139663085e-14</v>
+        <v>5.56333826059119e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>16360064.87269322</v>
+        <v>4.875421033605355</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.56333826059119e-06</v>
+        <v>9.967690223118844e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>4.875421033605355</v>
+        <v>6.633891306991646</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.967690223118844e-05</v>
+        <v>1.452710829319948</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.633891306991646</v>
+        <v>0.004386632334656861</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.452710829319948</v>
+        <v>3.416154191356996</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004386632334656861</v>
+        <v>0.9065442477804555</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.416154191356996</v>
+        <v>1.912226290640668</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9065442477804555</v>
+        <v>11</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.912226290640668</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2195692250202968</v>
       </c>
     </row>
@@ -2635,72 +2509,66 @@
         <v>2.14053804567353e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.443127075637761</v>
+        <v>6.924545022600557e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.6768457220977799</v>
+        <v>3.710336544195268e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.924545022600557e-07</v>
+        <v>0.04197896098143743</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.710336544195268e-06</v>
+        <v>0.09765026941754992</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04197896098143743</v>
+        <v>0.0112977288510941</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.09765026941754992</v>
+        <v>1.347148759636248</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0112977288510941</v>
+        <v>1.417610340536888</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.267640443900975</v>
+        <v>4.320495430832458</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.417610340536888</v>
+        <v>1.723769897339459e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.320495430832458</v>
+        <v>16696960.2848541</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.723769897339459e-14</v>
+        <v>5.660533550604704e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>16696960.2848541</v>
+        <v>4.805671942962778</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.660533550604704e-06</v>
+        <v>9.249267459019755e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>4.805671942962778</v>
+        <v>6.071499104185063</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.249267459019755e-05</v>
+        <v>1.482348852435774</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.071499104185063</v>
+        <v>0.003409566839596962</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.482348852435774</v>
+        <v>3.437465775041583</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003409566839596962</v>
+        <v>0.9125197034019781</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.437465775041583</v>
+        <v>1.929580506141248</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9125197034019781</v>
+        <v>13</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.929580506141248</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2335718038667613</v>
       </c>
     </row>
@@ -2715,72 +2583,66 @@
         <v>2.227316133118409e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.332183383085714</v>
+        <v>6.924545022600557e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.2863707902980499</v>
+        <v>3.719322029078454e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.924545022600557e-07</v>
+        <v>0.04037883045754345</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.719322029078454e-06</v>
+        <v>0.09382089608411595</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.04037883045754345</v>
+        <v>0.01043289494247926</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09382089608411595</v>
+        <v>1.36382588972492</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01043289494247926</v>
+        <v>1.531957261262111</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.284121053776143</v>
+        <v>4.388206632626783</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.531957261262111</v>
+        <v>1.67098385420774e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.388206632626783</v>
+        <v>16606554.19691465</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.67098385420774e-14</v>
+        <v>5.666125002677068e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>16606554.19691465</v>
+        <v>4.608199876265289</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>5.666125002677068e-06</v>
+        <v>8.804992299445488e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>4.608199876265289</v>
+        <v>7.488544735827527</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>8.804992299445488e-05</v>
+        <v>1.729214733764513</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.488544735827527</v>
+        <v>0.004937690195695925</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.729214733764513</v>
+        <v>3.446670969486215</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.004937690195695925</v>
+        <v>0.9175766651843131</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.446670969486215</v>
+        <v>1.93546079373816</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9175766651843131</v>
+        <v>13</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.93546079373816</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2568421200404825</v>
       </c>
     </row>
@@ -2795,72 +2657,66 @@
         <v>2.305412603933831e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.226687892912343</v>
+        <v>6.924545022600557e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.04698672317818664</v>
+        <v>3.728374714522181e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.924545022600557e-07</v>
+        <v>0.03965935759269852</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.728374714522181e-06</v>
+        <v>0.09027657853665169</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03965935759269852</v>
+        <v>0.009722785355085802</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.09027657853665169</v>
+        <v>1.380627989548009</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.009722785355085802</v>
+        <v>1.412173786611273</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.298179322081323</v>
+        <v>4.273121504884163</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.412173786611273</v>
+        <v>1.762202887609424e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.273121504884163</v>
+        <v>15676610.30489733</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.762202887609424e-14</v>
+        <v>6.056291053947187e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>15676610.30489733</v>
+        <v>4.330721278379338</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.056291053947187e-06</v>
+        <v>8.833639784365119e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>4.330721278379338</v>
+        <v>9.465192240012428</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>8.833639784365119e-05</v>
+        <v>1.785456685629296</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.465192240012428</v>
+        <v>0.007914045881464282</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.785456685629296</v>
+        <v>3.553212617848969</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007914045881464282</v>
+        <v>0.9223288020976735</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.553212617848969</v>
+        <v>1.900000477527297</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9223288020976735</v>
+        <v>12</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.900000477527297</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2731203841288424</v>
       </c>
     </row>
@@ -2875,72 +2731,66 @@
         <v>2.379777282121174e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.127961753720534</v>
+        <v>6.924545022600557e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.3291484084027174</v>
+        <v>3.737687262727282e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.924545022600557e-07</v>
+        <v>0.0400207544090008</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.737687262727282e-06</v>
+        <v>0.08721076013602203</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.0400207544090008</v>
+        <v>0.009206750985388337</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.08721076013602203</v>
+        <v>1.373324181078115</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.009206750985388337</v>
+        <v>1.359588387809173</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.291868851634216</v>
+        <v>4.246317526217387</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.359588387809173</v>
+        <v>1.784520166413845e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.246317526217387</v>
+        <v>15112227.5859553</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.784520166413845e-14</v>
+        <v>6.190558143177101e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>15112227.5859553</v>
+        <v>4.075476852409748</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.190558143177101e-06</v>
+        <v>8.087181479845339e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>4.075476852409748</v>
+        <v>7.35551756797309</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>8.087181479845339e-05</v>
+        <v>1.888019581853551</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.35551756797309</v>
+        <v>0.004375459448283384</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.888019581853551</v>
+        <v>3.645144813480699</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.004375459448283384</v>
+        <v>0.9225686747934736</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.645144813480699</v>
+        <v>1.897934322247774</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9225686747934736</v>
+        <v>12</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.897934322247774</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2616390110860839</v>
       </c>
     </row>
@@ -2955,72 +2805,66 @@
         <v>2.456292523130402e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.037723712872814</v>
+        <v>7.134420408325837e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.5628468927244947</v>
+        <v>3.74749745604569e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>7.134420408325837e-07</v>
+        <v>0.04111999989339055</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.74749745604569e-06</v>
+        <v>0.08514987330171375</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.04111999989339055</v>
+        <v>0.008940442572638563</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.08514987330171375</v>
+        <v>1.335303767024067</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.008940442572638563</v>
+        <v>1.40197717944643</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.265739216374181</v>
+        <v>4.294597423304886</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.40197717944643</v>
+        <v>1.530103633644282e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.294597423304886</v>
+        <v>18592354.14330597</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.530103633644282e-14</v>
+        <v>4.747457627298804e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>18592354.14330597</v>
+        <v>5.289195414884079</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.747457627298804e-06</v>
+        <v>8.778732880082952e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>5.289195414884079</v>
+        <v>6.811163995123083</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>8.778732880082952e-05</v>
+        <v>1.354376174648719</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>6.811163995123083</v>
+        <v>0.004072625804529566</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.354376174648719</v>
+        <v>3.439429259765513</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.004072625804529566</v>
+        <v>0.9105193455072789</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.439429259765513</v>
+        <v>1.907918268885023</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9105193455072789</v>
+        <v>13</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.907918268885023</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2493192927461734</v>
       </c>
     </row>
@@ -3035,72 +2879,66 @@
         <v>2.536237470007895e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.9560362271506621</v>
+        <v>7.356948688049215e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.7535503063753284</v>
+        <v>3.75778310870878e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.356948688049215e-07</v>
+        <v>0.04097774390747168</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.75778310870878e-06</v>
+        <v>0.0826897694173612</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04097774390747168</v>
+        <v>0.008516768932512886</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.0826897694173612</v>
+        <v>1.354950271247404</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.008516768932512886</v>
+        <v>1.549573610360249</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.279770902654398</v>
+        <v>4.083370846009408</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.549573610360249</v>
+        <v>1.692497817910865e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.083370846009408</v>
+        <v>16824364.46740617</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.692497817910865e-14</v>
+        <v>5.344059498109744e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>16824364.46740617</v>
+        <v>4.790771455861205</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.344059498109744e-06</v>
+        <v>9.834994562055062e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>4.790771455861205</v>
+        <v>6.832303653834106</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>9.834994562055062e-05</v>
+        <v>1.486264179111196</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.832303653834106</v>
+        <v>0.004591012167556472</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.486264179111196</v>
+        <v>3.357688399682471</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.004591012167556472</v>
+        <v>0.9119941452999754</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.357688399682471</v>
+        <v>1.941857286210168</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9119941452999754</v>
+        <v>12</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.941857286210168</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2233066117788415</v>
       </c>
     </row>
@@ -3115,72 +2953,66 @@
         <v>2.6144731848125e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.8791440945795425</v>
+        <v>7.423889451305417e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9175870730730402</v>
+        <v>3.768162218806214e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.423889451305417e-07</v>
+        <v>0.03959597430088003</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.768162218806214e-06</v>
+        <v>0.08023899992018324</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.03959597430088003</v>
+        <v>0.00800629058374174</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.08023899992018324</v>
+        <v>1.341240689143796</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.00800629058374174</v>
+        <v>1.510284816528767</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.268211640731727</v>
+        <v>4.050887008970538</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.510284816528767</v>
+        <v>1.71975074263703e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.050887008970538</v>
+        <v>16928691.03535246</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.71975074263703e-14</v>
+        <v>5.316694071226134e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>16928691.03535246</v>
+        <v>4.928471655734356</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.316694071226134e-06</v>
+        <v>0.0001060351183113289</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>4.928471655734356</v>
+        <v>7.089527494835115</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001060351183113289</v>
+        <v>1.644907525533109</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.089527494835115</v>
+        <v>0.005329473506098985</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.644907525533109</v>
+        <v>3.287777302670522</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.005329473506098985</v>
+        <v>0.9102194771566529</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.287777302670522</v>
+        <v>1.922680514873069</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9102194771566529</v>
+        <v>12</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.922680514873069</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2085649019635798</v>
       </c>
     </row>
@@ -3195,72 +3027,66 @@
         <v>2.688040995342493e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.8046521174166269</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.06352640858543</v>
+        <v>3.778528758279616e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.03853624629443601</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.778528758279616e-06</v>
+        <v>0.07807365739929917</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.03853624629443601</v>
+        <v>0.007580365014458533</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.07807365739929917</v>
+        <v>1.62418546980801</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.007580365014458533</v>
+        <v>1.180622173675211</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.679319938461289</v>
+        <v>24.33656273184771</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.180622173675211</v>
+        <v>3.244829515507434e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>24.33656273184771</v>
+        <v>263097809.4974945</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.244829515507434e-14</v>
+        <v>4.040245993176677e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>263097809.4974945</v>
+        <v>2246.085831263743</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.040245993176677e-07</v>
+        <v>0.0001134488502041639</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2246.085831263743</v>
+        <v>7.299336511362037</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001134488502041639</v>
+        <v>1.732023171473495</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.299336511362037</v>
+        <v>0.006044590305784761</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.732023171473495</v>
+        <v>3.282863242706393</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.006044590305784761</v>
+        <v>0.9062949919117759</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.282863242706393</v>
+        <v>0.8569457782061076</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9062949919117759</v>
+        <v>13</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.8569457782061076</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1931407447857928</v>
       </c>
     </row>
@@ -3275,72 +3101,66 @@
         <v>2.751815111156363e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.7295402265604848</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.197764816775269</v>
+        <v>3.788846530607426e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.0374112909425989</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.788846530607426e-06</v>
+        <v>0.07654226714283698</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.0374112909425989</v>
+        <v>0.007257995104428375</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.07654226714283698</v>
+        <v>1.494255839957461</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.007257995104428375</v>
+        <v>1.179196926788809</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.494874114367133</v>
+        <v>24.28084180980107</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.179196926788809</v>
+        <v>3.259739406530149e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>24.28084180980107</v>
+        <v>261896482.8615725</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.259739406530149e-14</v>
+        <v>4.05879196762931e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>261896482.8615725</v>
+        <v>2235.847687713834</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.05879196762931e-07</v>
+        <v>0.0001004502313721911</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2235.847687713834</v>
+        <v>7.73240662460272</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001004502313721911</v>
+        <v>1.234270460535153</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.73240662460272</v>
+        <v>0.006005930605082961</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.234270460535153</v>
+        <v>3.453106130142238</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.006005930605082961</v>
+        <v>0.9082187714028086</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.453106130142238</v>
+        <v>1.079475416245899</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9082187714028086</v>
+        <v>23</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.079475416245899</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.4466173374850935</v>
       </c>
     </row>
@@ -3355,72 +3175,66 @@
         <v>2.804110960107422e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.6538299366350183</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.318751484895378</v>
+        <v>3.79915752625518e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.03684393986775346</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.79915752625518e-06</v>
+        <v>0.07494321476210201</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.03684393986775346</v>
+        <v>0.006973667507320772</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.07494321476210201</v>
+        <v>1.519071069549316</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.006973667507320772</v>
+        <v>1.188576553377362</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.521217996580335</v>
+        <v>24.24190617088115</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.188576553377362</v>
+        <v>3.270218942307014e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>24.24190617088115</v>
+        <v>261057467.6029535</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.270218942307014e-14</v>
+        <v>4.072074298842686e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>261057467.6029535</v>
+        <v>2228.686956869134</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.072074298842686e-07</v>
+        <v>7.058903194180219e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2228.686956869134</v>
+        <v>9.092192788185264</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>7.058903194180219e-05</v>
+        <v>1.287851157425439</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.092192788185264</v>
+        <v>0.005835451953542748</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.287851157425439</v>
+        <v>4.873709223737382</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.005835451953542748</v>
+        <v>0.9191237963427646</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.873709223737382</v>
+        <v>0.939915385056617</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9191237963427646</v>
+        <v>29</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.939915385056617</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>2.431510122162664</v>
       </c>
     </row>
@@ -3435,72 +3249,66 @@
         <v>2.846457499474652e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5789107595813674</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.423992639732613</v>
+        <v>3.809575107689554e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.03707575448638369</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.809575107689554e-06</v>
+        <v>0.07303544608259201</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.03707575448638369</v>
+        <v>0.006708666557299495</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.07303544608259201</v>
+        <v>1.517766213339059</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.006708666557299495</v>
+        <v>1.195021800790404</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.516404034730153</v>
+        <v>24.90088641931768</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.195021800790404</v>
+        <v>3.215086733665902e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>24.90088641931768</v>
+        <v>265541505.6626441</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.215086733665902e-14</v>
+        <v>4.00337367291985e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>265541505.6626441</v>
+        <v>2267.031320926222</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.00337367291985e-07</v>
+        <v>4.237690662185716e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2267.031320926222</v>
+        <v>9.733613824163559</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>4.237690662185716e-05</v>
+        <v>1.422264549803852</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.733613824163559</v>
+        <v>0.004014925353081582</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.422264549803852</v>
+        <v>6.649365544666434</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.004014925353081582</v>
+        <v>0.9194327543999922</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>6.649365544666434</v>
+        <v>0.9975083218700221</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9194327543999922</v>
+        <v>29</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.9975083218700221</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>5.201779543560155</v>
       </c>
     </row>
@@ -3515,72 +3323,66 @@
         <v>2.883427832853605e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5063249881621841</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.512700192826958</v>
+        <v>3.820389503730441e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.03840884509690499</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.820389503730441e-06</v>
+        <v>0.07099529268527481</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.03840884509690499</v>
+        <v>0.006515431028314639</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.07099529268527481</v>
+        <v>1.534328195648889</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.006515431028314639</v>
+        <v>1.213813511657144</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.533645998135291</v>
+        <v>28.26462100481047</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.213813511657144</v>
+        <v>3.355848140327102e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>28.26462100481047</v>
+        <v>263986555.0941648</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.355848140327102e-14</v>
+        <v>4.026839973635213e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>263986555.0941648</v>
+        <v>2338.653697299945</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.026839973635213e-07</v>
+        <v>2.718420438737476e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2338.653697299945</v>
+        <v>9.645710612931177</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>2.718420438737476e-05</v>
+        <v>1.477744039767464</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.645710612931177</v>
+        <v>0.002529211124228006</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.477744039767464</v>
+        <v>7.532608927687567</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.002529211124228006</v>
+        <v>0.9267766468608087</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>7.532608927687567</v>
+        <v>1.029572603590953</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9267766468608087</v>
+        <v>32</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.029572603590953</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>6.958989000797649</v>
       </c>
     </row>
@@ -3595,72 +3397,66 @@
         <v>2.916432203070454e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.4365462149521273</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.586116636427974</v>
+        <v>3.831685250397258e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.039408716964575</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.831685250397258e-06</v>
+        <v>0.06918532304480368</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.039408716964575</v>
+        <v>0.006339660932890841</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.06918532304480368</v>
+        <v>1.538513558439684</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.006339660932890841</v>
+        <v>1.211557923533261</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.539603019134588</v>
+        <v>28.20159573085262</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.211557923533261</v>
+        <v>3.370864282353948e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>28.20159573085262</v>
+        <v>262808842.2309422</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.370864282353948e-14</v>
+        <v>4.044917179143898e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>262808842.2309422</v>
+        <v>2328.204977345767</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.044917179143898e-07</v>
+        <v>2.416557202966501e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>2328.204977345767</v>
+        <v>8.928019159836744</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>2.416557202966501e-05</v>
+        <v>1.416396746009649</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.928019159836744</v>
+        <v>0.001926226294864949</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.416396746009649</v>
+        <v>7.576707669250871</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.001926226294864949</v>
+        <v>0.9266437394762623</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>7.576707669250871</v>
+        <v>1.054347901322031</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9266437394762623</v>
+        <v>31</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.054347901322031</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>7.04825900335443</v>
       </c>
     </row>
@@ -3675,72 +3471,66 @@
         <v>2.943971780633792e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3691169918474823</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.646628610549349</v>
+        <v>3.843330248847693e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.03992967312668341</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.843330248847693e-06</v>
+        <v>0.06779601313167259</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.03992967312668341</v>
+        <v>0.006190766130045326</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.06779601313167259</v>
+        <v>1.540007613710947</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.006190766130045326</v>
+        <v>1.217165053883585</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.541431626787839</v>
+        <v>28.1110874794992</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.217165053883585</v>
+        <v>3.392605325082877e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>28.1110874794992</v>
+        <v>261115071.8408817</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.392605325082877e-14</v>
+        <v>4.071143527062917e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>261115071.8408817</v>
+        <v>2313.114975968054</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.071143527062917e-07</v>
+        <v>2.873755773740867e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>2313.114975968054</v>
+        <v>8.806800162674934</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>2.873755773740867e-05</v>
+        <v>1.311120830209002</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.806800162674934</v>
+        <v>0.002228877193261083</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.311120830209002</v>
+        <v>7.08274361984068</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.002228877193261083</v>
+        <v>0.9256534398186033</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>7.08274361984068</v>
+        <v>0.9965184433692427</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9256534398186033</v>
+        <v>28</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.9965184433692427</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>6.141957781163626</v>
       </c>
     </row>
@@ -3755,72 +3545,66 @@
         <v>2.963767176278518e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.3031804572062704</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.696722316451954</v>
+        <v>3.855112105377262e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.03968560325958789</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>3.855112105377262e-06</v>
+        <v>0.06733384466660174</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.03968560325958789</v>
+        <v>0.006108755100585325</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.06733384466660174</v>
+        <v>1.544119874395335</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.006108755100585325</v>
+        <v>1.212806337590316</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.546125754420928</v>
+        <v>28.02355772721203</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.212806337590316</v>
+        <v>3.413831585122347e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>28.02355772721203</v>
+        <v>259494579.4448783</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.413831585122347e-14</v>
+        <v>4.096592800646342e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>259494579.4448783</v>
+        <v>2298.786684768166</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.096592800646342e-07</v>
+        <v>3.905639986021253e-05</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>2298.786684768166</v>
+        <v>8.253264225065598</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>3.905639986021253e-05</v>
+        <v>1.386907485539648</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.253264225065598</v>
+        <v>0.00266038019814814</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.386907485539648</v>
+        <v>6.442409789512594</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.00266038019814814</v>
+        <v>0.9271995568918103</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>6.442409789512594</v>
+        <v>1.006260134636041</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9271995568918103</v>
+        <v>28</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.006260134636041</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>4.68762197743848</v>
       </c>
     </row>
@@ -3835,72 +3619,66 @@
         <v>2.973938544418988e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.238102174421579</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.737676208190607</v>
+        <v>3.866800110148276e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.0389647281082724</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3.866800110148276e-06</v>
+        <v>0.06781962767053865</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.0389647281082724</v>
+        <v>0.006117650182762494</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.06781962767053865</v>
+        <v>1.545900694730309</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.006117650182762494</v>
+        <v>1.208749438085719</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.547268882869876</v>
+        <v>28.01119469006399</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.208749438085719</v>
+        <v>3.416845711513944e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>28.01119469006399</v>
+        <v>259269376.3066376</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.416845711513944e-14</v>
+        <v>4.10015391923121e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>259269376.3066376</v>
+        <v>2296.82451262739</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>4.10015391923121e-07</v>
+        <v>3.3461872071361e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>2296.82451262739</v>
+        <v>8.022800551775916</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>3.3461872071361e-05</v>
+        <v>1.549063677609287</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.022800551775916</v>
+        <v>0.002153784394575539</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.549063677609287</v>
+        <v>6.754672374677091</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.002153784394575539</v>
+        <v>0.927300741097442</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>6.754672374677091</v>
+        <v>1.025766636710114</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.927300741097442</v>
+        <v>28</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.025766636710114</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>4.969469468104499</v>
       </c>
     </row>
@@ -3915,72 +3693,66 @@
         <v>2.974692107272051e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1738683786613828</v>
+        <v>7.446015756605488e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.769331565426612</v>
+        <v>3.878268488768234e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>7.446015756605488e-07</v>
+        <v>0.03810282772197211</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>3.878268488768234e-06</v>
+        <v>0.06875366191507853</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.03810282772197211</v>
+        <v>0.006178840536279502</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.06875366191507853</v>
+        <v>1.548842503467059</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.006178840536279502</v>
+        <v>1.208729958255956</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.550704308033197</v>
+        <v>28.12606270229544</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.208729958255956</v>
+        <v>3.388993621871891e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>28.12606270229544</v>
+        <v>261405118.7078995</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.388993621871891e-14</v>
+        <v>4.06671775822707e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>261405118.7078995</v>
+        <v>2315.788678634889</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>4.06671775822707e-07</v>
+        <v>2.140490946484139e-05</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>2315.788678634889</v>
+        <v>8.67454989999205</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>2.140490946484139e-05</v>
+        <v>1.534376743845135</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.67454989999205</v>
+        <v>0.001610672688210358</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.534376743845135</v>
+        <v>7.531394529348213</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.001610672688210358</v>
+        <v>0.9286714719903464</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>7.531394529348213</v>
+        <v>1.039718017258854</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9286714719903464</v>
+        <v>34</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.039718017258854</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>6.581387777197562</v>
       </c>
     </row>
@@ -3995,72 +3767,66 @@
         <v>2.96757543613885e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.1104401436591767</v>
+        <v>7.430093042917637e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.791328482769433</v>
+        <v>3.88945982146661e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>7.430093042917637e-07</v>
+        <v>0.03719196588864759</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>3.88945982146661e-06</v>
+        <v>0.06982687491844237</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.03719196588864759</v>
+        <v>0.0062590415807553</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.06982687491844237</v>
+        <v>1.552885303866241</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.0062590415807553</v>
+        <v>1.205736751938609</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.555046037602972</v>
+        <v>28.68314098554832</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.205736751938609</v>
+        <v>3.258631246120561e-14</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>28.68314098554832</v>
+        <v>271861695.643705</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.258631246120561e-14</v>
+        <v>3.910324510988795e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>271861695.643705</v>
+        <v>2408.414649484793</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>3.910324510988795e-07</v>
+        <v>1.531994530151662e-05</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>2408.414649484793</v>
+        <v>9.840934115189119</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>1.531994530151662e-05</v>
+        <v>1.328920105457143</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.840934115189119</v>
+        <v>0.00148364454163637</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.328920105457143</v>
+        <v>7.92676748272939</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.00148364454163637</v>
+        <v>0.9300218933493246</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>7.92676748272939</v>
+        <v>1.075643170815474</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9300218933493246</v>
+        <v>34</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.075643170815474</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>7.778035156210825</v>
       </c>
     </row>
@@ -4075,72 +3841,66 @@
         <v>2.954748757932677e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.04740243580568908</v>
+        <v>7.353347024448705e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.803378481336561</v>
+        <v>3.900336938967012e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>7.353347024448705e-07</v>
+        <v>0.03624961201747556</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>3.900336938967012e-06</v>
+        <v>0.07081826775026566</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.03624961201747556</v>
+        <v>0.006329278591392104</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.07081826775026566</v>
+        <v>1.555012146490224</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.006329278591392104</v>
+        <v>1.203628832553159</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.558336119865533</v>
+        <v>29.85398787451659</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.203628832553159</v>
+        <v>3.008042226558543e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>29.85398787451659</v>
+        <v>294509812.781492</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>3.008042226558543e-14</v>
+        <v>3.609623682287969e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>294509812.781492</v>
+        <v>2609.056402764063</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>3.609623682287969e-07</v>
+        <v>1.998225397334885e-05</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>2609.056402764063</v>
+        <v>9.577518501652417</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>1.998225397334885e-05</v>
+        <v>1.307278775698826</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.577518501652417</v>
+        <v>0.001832949390184122</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.307278775698826</v>
+        <v>7.66500158621759</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.001832949390184122</v>
+        <v>0.9298313596596592</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>7.66500158621759</v>
+        <v>1.000357997686315</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9298313596596592</v>
+        <v>34</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.000357997686315</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>7.33650224033166</v>
       </c>
     </row>
@@ -4155,72 +3915,66 @@
         <v>2.938637667872623e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.0159445428914165</v>
+        <v>7.350921191905416e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.805237841051839</v>
+        <v>3.910884783445804e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>7.350921191905416e-07</v>
+        <v>0.03536266395804252</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>3.910884783445804e-06</v>
+        <v>0.07162935257569163</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.03536266395804252</v>
+        <v>0.006381335538742599</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.07162935257569163</v>
+        <v>1.57777577046925</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.006381335538742599</v>
+        <v>1.219360468924185</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.583933030006069</v>
+        <v>30.46964645604709</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.219360468924185</v>
+        <v>2.887711501250533e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>30.46964645604709</v>
+        <v>306766623.6030476</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.887711501250533e-14</v>
+        <v>3.465620555507653e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>306766623.6030476</v>
+        <v>2717.502894040094</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>3.465620555507653e-07</v>
+        <v>3.872195249204941e-05</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>2717.502894040094</v>
+        <v>8.334359236895914</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>3.872195249204941e-05</v>
+        <v>1.468872295835469</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.334359236895914</v>
+        <v>0.002689686602518744</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.468872295835469</v>
+        <v>6.690108862477085</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.002689686602518744</v>
+        <v>0.9426724524218741</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>6.690108862477085</v>
+        <v>1.057154678412846</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9426724524218741</v>
+        <v>38</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.057154678412846</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>5.166191069298414</v>
       </c>
     </row>
@@ -4235,72 +3989,66 @@
         <v>2.919431410499568e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.07960694972515826</v>
+        <v>7.350921191905416e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.797027750621516</v>
+        <v>3.921152517545653e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>7.350921191905416e-07</v>
+        <v>0.03478901932578033</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>3.921152517545653e-06</v>
+        <v>0.07257246368129236</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.03478901932578033</v>
+        <v>0.006477102386740216</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.07257246368129236</v>
+        <v>1.583095408548195</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.006477102386740216</v>
+        <v>1.21977921771845</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.590304380737064</v>
+        <v>31.72869136611122</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.21977921771845</v>
+        <v>2.663080608754671e-14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>31.72869136611122</v>
+        <v>332635567.3989436</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.663080608754671e-14</v>
+        <v>3.196120874841807e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>332635567.3989436</v>
+        <v>2946.603373911315</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>3.196120874841807e-07</v>
+        <v>5.189777705092368e-05</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>2946.603373911315</v>
+        <v>8.518353407704987</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>5.189777705092368e-05</v>
+        <v>1.40848292690218</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.518353407704987</v>
+        <v>0.00376582439160992</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.40848292690218</v>
+        <v>5.725750054803259</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.00376582439160992</v>
+        <v>0.944453732974493</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>5.725750054803259</v>
+        <v>1.025892691918505</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.944453732974493</v>
+        <v>38</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.025892691918505</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>3.109692230381531</v>
       </c>
     </row>
@@ -4315,72 +4063,66 @@
         <v>2.895226408827396e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1428969716136637</v>
+        <v>7.350921191905416e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.779182483506991</v>
+        <v>3.931230635210588e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>7.350921191905416e-07</v>
+        <v>0.03456901189985973</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>3.931230635210588e-06</v>
+        <v>0.07357485482710661</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.03456901189985973</v>
+        <v>0.006608352790059543</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.07357485482710661</v>
+        <v>1.592950850225052</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.006608352790059543</v>
+        <v>1.210465619236273</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.602811806917145</v>
+        <v>31.98657781094165</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.210465619236273</v>
+        <v>2.620312426384822e-14</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>31.98657781094165</v>
+        <v>338061579.6632923</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2.620312426384822e-14</v>
+        <v>3.144859753379773e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>338061579.6632923</v>
+        <v>2994.640607551662</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>3.144859753379773e-07</v>
+        <v>6.119573334455335e-05</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>2994.640607551662</v>
+        <v>9.246331205906612</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>6.119573334455335e-05</v>
+        <v>1.36467258460713</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.246331205906612</v>
+        <v>0.005231907238907834</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.36467258460713</v>
+        <v>5.227263011209721</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.005231907238907834</v>
+        <v>0.9457155976200218</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>5.227263011209721</v>
+        <v>1.001688911181733</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9457155976200218</v>
+        <v>38</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.001688911181733</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>1.997598114244538</v>
       </c>
     </row>
@@ -4395,72 +4137,66 @@
         <v>2.865476530993514e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2055738083836643</v>
+        <v>7.350921191905416e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.752324509557548</v>
+        <v>3.941204352463619e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>7.350921191905416e-07</v>
+        <v>0.03475051925203605</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>3.941204352463619e-06</v>
+        <v>0.07446948416722637</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.03475051925203605</v>
+        <v>0.006753433922637646</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.07446948416722637</v>
+        <v>1.634277272745698</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.006753433922637646</v>
+        <v>1.340496363104241</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.57437495478882</v>
+        <v>11.86968608643186</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.340496363104241</v>
+        <v>9.747990350195716e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>11.86968608643186</v>
+        <v>244277696.1411155</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>9.747990350195716e-15</v>
+        <v>4.352949082458086e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>244277696.1411155</v>
+        <v>581.6781111072526</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>4.352949082458086e-07</v>
+        <v>7.583689103449705e-05</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>581.6781111072526</v>
+        <v>9.982212703177639</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>7.583689103449705e-05</v>
+        <v>1.296323734074014</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.982212703177639</v>
+        <v>0.007556734431508233</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.296323734074014</v>
+        <v>4.921216511962679</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.007556734431508233</v>
+        <v>0.9488048146937696</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>4.921216511962679</v>
+        <v>1.136764877487284</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9488048146937696</v>
+        <v>36</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.136764877487284</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>1.671298666552995</v>
       </c>
     </row>
@@ -4837,7 +4573,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.319208803109381</v>
+        <v>1.305486746755894</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.916872474691334</v>
@@ -4926,7 +4662,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.337545829123809</v>
+        <v>1.327657842202836</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.909870763272539</v>
@@ -5015,7 +4751,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.333957254353795</v>
+        <v>1.323481150844127</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.885997238071222</v>
@@ -5104,7 +4840,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.336808326443687</v>
+        <v>1.326623495912697</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.879627294438907</v>
@@ -5193,7 +4929,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.34796694694715</v>
+        <v>1.351077865652432</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.992161706131648</v>
@@ -5282,7 +5018,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.365719948290211</v>
+        <v>1.373102154234927</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.038653018614253</v>
@@ -5371,7 +5107,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.386025048688796</v>
+        <v>1.3927079950897</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.041231446389814</v>
@@ -5460,7 +5196,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.399773344770473</v>
+        <v>1.404852971389023</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.087572857577518</v>
@@ -5549,7 +5285,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.398499599709823</v>
+        <v>1.400087333756289</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.996328428385553</v>
@@ -5638,7 +5374,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.464761578777382</v>
+        <v>1.460174391306922</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.251806241127929</v>
@@ -5727,7 +5463,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.452196200631605</v>
+        <v>1.445544684007567</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.655487642341661</v>
@@ -5816,7 +5552,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.442095923513575</v>
+        <v>1.436183370156487</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.680471054639745</v>
@@ -5905,7 +5641,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.436983232607039</v>
+        <v>1.427764348701766</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.711983880304186</v>
@@ -5994,7 +5730,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.435258433814012</v>
+        <v>1.422150020509651</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.636144529470032</v>
@@ -6083,7 +5819,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.436357487648846</v>
+        <v>1.423031202099892</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.726447088475671</v>
@@ -6172,7 +5908,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.452515536145235</v>
+        <v>1.434108453579172</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.663644417930889</v>
@@ -6261,7 +5997,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.391979398681081</v>
+        <v>1.375825562517997</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.897062882197436</v>
@@ -6350,7 +6086,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.383816485260664</v>
+        <v>1.372722163075859</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.945387524218596</v>
@@ -6439,7 +6175,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.385649444427821</v>
+        <v>1.377242073466167</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.914369210870476</v>
@@ -6528,7 +6264,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.389530579146599</v>
+        <v>1.384151203278731</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.963904590430811</v>
@@ -6617,7 +6353,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.388996981214492</v>
+        <v>1.383806334116773</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.953844071063162</v>
@@ -6706,7 +6442,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.372995476490003</v>
+        <v>1.365423318950298</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.951771282777534</v>
@@ -6795,7 +6531,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.360154168426739</v>
+        <v>1.358427419934705</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.989072800027309</v>
@@ -6884,7 +6620,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.32908478490447</v>
+        <v>1.328455116427994</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.022495807974214</v>
@@ -6973,7 +6709,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.333930117819408</v>
+        <v>1.331853213090956</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.98554924053265</v>
@@ -7062,7 +6798,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.346416070953451</v>
+        <v>1.346167166957421</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.054589838132774</v>
@@ -7151,7 +6887,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.354752857735705</v>
+        <v>1.358601401253249</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.006330263477006</v>
@@ -7240,7 +6976,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.358047618164512</v>
+        <v>1.358358505447275</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.028298338143352</v>
@@ -7329,7 +7065,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.333221184668702</v>
+        <v>1.329771296638111</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.906333741436201</v>
@@ -7418,7 +7154,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.332869396113608</v>
+        <v>1.328438977993838</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.901721039110364</v>
@@ -7507,7 +7243,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.29170582381379</v>
+        <v>1.285836611386473</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.75170480363399</v>
@@ -7596,7 +7332,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.310066166940775</v>
+        <v>1.306834691196405</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.734464865762302</v>
@@ -7685,7 +7421,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.304958188470132</v>
+        <v>1.299938415461939</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.717453875421122</v>
@@ -7774,7 +7510,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.31022127625586</v>
+        <v>1.303817499047353</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.723678903904921</v>
@@ -7863,7 +7599,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.309994027008875</v>
+        <v>1.303475081624754</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.704253894964635</v>
@@ -7952,7 +7688,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.304255683325382</v>
+        <v>1.300011320591449</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.723320146500415</v>
@@ -8041,7 +7777,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.314608801922963</v>
+        <v>1.310824053125467</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.74648508019165</v>
@@ -8130,7 +7866,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.310461665623439</v>
+        <v>1.306304999851762</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.706176782280401</v>
@@ -8219,7 +7955,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.33164314347529</v>
+        <v>1.330197263855136</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.683087851637413</v>
@@ -8308,7 +8044,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.340081882854747</v>
+        <v>1.33664524428014</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.687651862872874</v>
@@ -8397,7 +8133,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.336137602781087</v>
+        <v>1.331334164745936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.710604533260475</v>
@@ -8486,7 +8222,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.321003932935882</v>
+        <v>1.320402388621223</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.715627967442243</v>
@@ -8575,7 +8311,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.321001603021308</v>
+        <v>1.312962919015713</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.792441850573015</v>
@@ -8664,7 +8400,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.316097860650452</v>
+        <v>1.328384664842707</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.70209029602453</v>
@@ -8753,7 +8489,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.330294039177778</v>
+        <v>1.34355089219946</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.758649384195253</v>
@@ -8842,7 +8578,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.390876953936341</v>
+        <v>1.409618949533659</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.253738960492808</v>
@@ -8931,7 +8667,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.395667727020547</v>
+        <v>1.416830730078452</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.319633256938779</v>
@@ -9020,7 +8756,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.391055403593976</v>
+        <v>1.412736867016054</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.377098310199798</v>
@@ -9109,7 +8845,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.393412278700555</v>
+        <v>1.414773620434604</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.391685689198784</v>
@@ -9198,7 +8934,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.396104539284728</v>
+        <v>1.4143536523769</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.183623646041619</v>
@@ -9287,7 +9023,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.399158734330337</v>
+        <v>1.411514076532784</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.406491038836839</v>
@@ -9376,7 +9112,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.391297495894216</v>
+        <v>1.408407279552607</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.413093956923395</v>
@@ -9465,7 +9201,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.371304912554506</v>
+        <v>1.385776661596584</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.377161996713519</v>
@@ -9554,7 +9290,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.369414981238046</v>
+        <v>1.384467961246034</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.219254431931413</v>
@@ -9643,7 +9379,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.371557049079974</v>
+        <v>1.38651588730984</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.212080603293291</v>
@@ -9732,7 +9468,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.388016494580914</v>
+        <v>1.403181860713972</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.19076426336291</v>
@@ -9821,7 +9557,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.393789973879997</v>
+        <v>1.409625909663865</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.286266312414523</v>
@@ -9910,7 +9646,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.420112862199542</v>
+        <v>1.43257116455097</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.194925603399384</v>
@@ -9999,7 +9735,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.375947033666412</v>
+        <v>1.377352207007408</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.039160340656344</v>
@@ -10088,7 +9824,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.351725837995607</v>
+        <v>1.35072132710358</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.042647620415616</v>
@@ -10177,7 +9913,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.338870049096612</v>
+        <v>1.336394341404598</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.036716015936749</v>
@@ -10266,7 +10002,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.319924046746942</v>
+        <v>1.315928242082884</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.081327707801305</v>
@@ -10355,7 +10091,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.323170657679655</v>
+        <v>1.320022503567197</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.065977014509584</v>
@@ -10444,7 +10180,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.320345559439221</v>
+        <v>1.31343651846823</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.090024702550706</v>
@@ -10533,7 +10269,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.311626157326715</v>
+        <v>1.304483933135792</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.092660192525394</v>
@@ -10622,7 +10358,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.307530023042085</v>
+        <v>1.300725414211875</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.995571009481013</v>
@@ -10711,7 +10447,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.312226433663808</v>
+        <v>1.301490827938275</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.997208188137592</v>
@@ -10800,7 +10536,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.332536680752668</v>
+        <v>1.322535676855457</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.908556860934647</v>
@@ -10889,7 +10625,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.343612287752267</v>
+        <v>1.332684292534849</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.016545674323727</v>
@@ -10978,7 +10714,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.340864260138861</v>
+        <v>1.328654563664208</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.014284433771551</v>
@@ -11067,7 +10803,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.341579501294482</v>
+        <v>1.327699991467973</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.042071216714782</v>
@@ -11156,7 +10892,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.330407045546445</v>
+        <v>1.3168820219265</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.040411646149095</v>
@@ -11245,7 +10981,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.327430308116118</v>
+        <v>1.314605567893667</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.043827399744088</v>
@@ -11334,7 +11070,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.358888403418017</v>
+        <v>1.348853209876441</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.567939870975667</v>
@@ -11423,7 +11159,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.359764568981729</v>
+        <v>1.357731075698815</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.442357012168378</v>
@@ -11512,7 +11248,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.376016911717904</v>
+        <v>1.378464707014725</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.408596411724132</v>
@@ -11601,7 +11337,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.404953476137642</v>
+        <v>1.408145415189947</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.432123231392126</v>
@@ -11690,7 +11426,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.410960335529404</v>
+        <v>1.412192491689002</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.47839749471799</v>
@@ -11779,7 +11515,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.416317748516554</v>
+        <v>1.424534011591315</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.192845436272859</v>
@@ -11868,7 +11604,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.443053660623615</v>
+        <v>1.453999603961282</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.395046743473026</v>
@@ -11957,7 +11693,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.463908283839959</v>
+        <v>1.471780247961137</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.169686834173929</v>
@@ -12046,7 +11782,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.463692869612122</v>
+        <v>1.48510537882215</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.436187047795022</v>
@@ -12135,7 +11871,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.46181065133849</v>
+        <v>1.478728218217723</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.477255419800495</v>
@@ -12224,7 +11960,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.445785700418176</v>
+        <v>1.463575082204436</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.48287499089483</v>
@@ -12313,7 +12049,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.444437664983012</v>
+        <v>1.466723716768525</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.49907638842002</v>
@@ -12402,7 +12138,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.436295817182079</v>
+        <v>1.458283827064381</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.48753550398931</v>
@@ -12491,7 +12227,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.455509136967861</v>
+        <v>1.472435241479918</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.684998369109993</v>
@@ -12777,7 +12513,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.184376563046868</v>
+        <v>1.18635200063311</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.857380250609469</v>
@@ -12866,7 +12602,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.18554925939884</v>
+        <v>1.189700800590288</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.851888006952321</v>
@@ -12955,7 +12691,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.182146100731758</v>
+        <v>1.18687541506982</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.82835549067251</v>
@@ -13044,7 +12780,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.181597846476575</v>
+        <v>1.183327180393291</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.901017691377317</v>
@@ -13133,7 +12869,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.19033707572414</v>
+        <v>1.192007329206087</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.654560642854005</v>
@@ -13222,7 +12958,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.22929768951365</v>
+        <v>1.228671857906955</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.804276745190058</v>
@@ -13311,7 +13047,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.278793405678756</v>
+        <v>1.271335383641452</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.897300223368481</v>
@@ -13400,7 +13136,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.305845789557891</v>
+        <v>1.294996962265602</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.01218435043837</v>
@@ -13489,7 +13225,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.315149594270212</v>
+        <v>1.306498107690161</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.058536033608307</v>
@@ -13578,7 +13314,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.360613669700582</v>
+        <v>1.348873129338266</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.73506951896425</v>
@@ -13667,7 +13403,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.356270675748919</v>
+        <v>1.343568514676195</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.590715550973664</v>
@@ -13756,7 +13492,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.351806222094815</v>
+        <v>1.335883709430469</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.764566706225278</v>
@@ -13845,7 +13581,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.367929940062959</v>
+        <v>1.349259540545173</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.608586938962608</v>
@@ -13934,7 +13670,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.38407613724152</v>
+        <v>1.36528679688904</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.438466932259345</v>
@@ -14023,7 +13759,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.377694358951509</v>
+        <v>1.357669699599839</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.60282706332795</v>
@@ -14112,7 +13848,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.333834657601689</v>
+        <v>1.321823326553252</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.887877502793978</v>
@@ -14201,7 +13937,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.320819535079896</v>
+        <v>1.304613934968486</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.934985869741071</v>
@@ -14290,7 +14026,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.313074104203392</v>
+        <v>1.305845735769302</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.966347910239383</v>
@@ -14379,7 +14115,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.324749711649849</v>
+        <v>1.317043436049711</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.918404675309805</v>
@@ -14468,7 +14204,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.323486009402649</v>
+        <v>1.316815470805833</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.942993599076979</v>
@@ -14557,7 +14293,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.335303076782301</v>
+        <v>1.322654990213365</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.91565069599904</v>
@@ -14646,7 +14382,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.332277717177236</v>
+        <v>1.322910268611818</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.967678767323675</v>
@@ -14735,7 +14471,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.334139452676733</v>
+        <v>1.32453551699471</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.945912747638105</v>
@@ -14824,7 +14560,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.301138981186736</v>
+        <v>1.294937845626213</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.052182424298891</v>
@@ -14913,7 +14649,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.304659120539076</v>
+        <v>1.299767516420701</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.026248724364756</v>
@@ -15002,7 +14738,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.305861987325222</v>
+        <v>1.303170806015723</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.036600081241813</v>
@@ -15091,7 +14827,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.289609533402302</v>
+        <v>1.291819673788943</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.041598359114266</v>
@@ -15180,7 +14916,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.266095521973609</v>
+        <v>1.266805202794654</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.118433905477707</v>
@@ -15269,7 +15005,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.251782009280531</v>
+        <v>1.251025291081003</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.08493536927513</v>
@@ -15358,7 +15094,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.248663810857898</v>
+        <v>1.249325476141387</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.050708456474816</v>
@@ -15447,7 +15183,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.271191999138753</v>
+        <v>1.267049321956391</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.159728126815093</v>
@@ -15536,7 +15272,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.279206726032668</v>
+        <v>1.276098406968369</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.073805869325076</v>
@@ -15625,7 +15361,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.28382451629928</v>
+        <v>1.278577280039825</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.161325441934898</v>
@@ -15714,7 +15450,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.286830500006639</v>
+        <v>1.283397813196502</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.162799512739897</v>
@@ -15803,7 +15539,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.289044190737755</v>
+        <v>1.279008498085334</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.081621925606233</v>
@@ -15892,7 +15628,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.272485710309988</v>
+        <v>1.270410129115742</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.127941142845849</v>
@@ -15981,7 +15717,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.271625756583793</v>
+        <v>1.271236272537263</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.058546512207758</v>
@@ -16070,7 +15806,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.275960171564624</v>
+        <v>1.275512311351852</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.106045853895948</v>
@@ -16159,7 +15895,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.29662181485603</v>
+        <v>1.298485361514322</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.099734421551785</v>
@@ -16248,7 +15984,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.273405212847623</v>
+        <v>1.273159198701851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.128237235430079</v>
@@ -16337,7 +16073,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.265113174694241</v>
+        <v>1.268737622930932</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.074460635743864</v>
@@ -16426,7 +16162,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.248636269934781</v>
+        <v>1.261592762938859</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.912638037840195</v>
@@ -16515,7 +16251,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.25429067082765</v>
+        <v>1.2651077154175</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.000939639238061</v>
@@ -16604,7 +16340,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.238728774308694</v>
+        <v>1.252822333400157</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.085847176979041</v>
@@ -16693,7 +16429,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.226288904749217</v>
+        <v>1.24077170563776</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.040543238132319</v>
@@ -16782,7 +16518,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.223999941908852</v>
+        <v>1.239448823551308</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.093574779659071</v>
@@ -16871,7 +16607,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.221072691194475</v>
+        <v>1.237434901209271</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.082813106464957</v>
@@ -16960,7 +16696,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.220226981744693</v>
+        <v>1.236976166524793</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.098756544622911</v>
@@ -17049,7 +16785,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.218545216867286</v>
+        <v>1.233991988268394</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.063044716615603</v>
@@ -17138,7 +16874,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.220114605086455</v>
+        <v>1.235304650194518</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.859682085873094</v>
@@ -17227,7 +16963,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.219089760152474</v>
+        <v>1.236951294920713</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.05995325886497</v>
@@ -17316,7 +17052,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.226364105443905</v>
+        <v>1.240259457053795</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.116758300659968</v>
@@ -17405,7 +17141,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.221026899077772</v>
+        <v>1.236239162387812</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.14195802962336</v>
@@ -17494,7 +17230,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.219451834604292</v>
+        <v>1.232562200140552</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.105210938708795</v>
@@ -17583,7 +17319,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.234770304827404</v>
+        <v>1.249548106596797</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.93522614302157</v>
@@ -17672,7 +17408,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.239632910688714</v>
+        <v>1.244186244240792</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.880758319908392</v>
@@ -17761,7 +17497,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.261876848791497</v>
+        <v>1.266433928869695</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.004562960692147</v>
@@ -17850,7 +17586,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.274668286692789</v>
+        <v>1.28105082437925</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.036917300275546</v>
@@ -17939,7 +17675,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.257584704778444</v>
+        <v>1.260279791518655</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.808949404212938</v>
@@ -18028,7 +17764,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.24084346152523</v>
+        <v>1.242720945685354</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.910184240791326</v>
@@ -18117,7 +17853,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.23297227556955</v>
+        <v>1.230951190739038</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.923106368074051</v>
@@ -18206,7 +17942,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.226889060244749</v>
+        <v>1.227484792635108</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.895797632974842</v>
@@ -18295,7 +18031,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.210122810038677</v>
+        <v>1.207339663506805</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.912941935829519</v>
@@ -18384,7 +18120,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.211779633513468</v>
+        <v>1.209948323938823</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.957276052657068</v>
@@ -18473,7 +18209,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.20665311932041</v>
+        <v>1.203902124647392</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.927412455389534</v>
@@ -18562,7 +18298,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.217869305310169</v>
+        <v>1.214478269717152</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.939874794280148</v>
@@ -18651,7 +18387,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.206263061042894</v>
+        <v>1.203966906200935</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.926856162685618</v>
@@ -18740,7 +18476,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.202757634964073</v>
+        <v>1.198930196897686</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.819441105352144</v>
@@ -18829,7 +18565,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.204271579890119</v>
+        <v>1.199814095663611</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.816895101273266</v>
@@ -18918,7 +18654,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.172599867379122</v>
+        <v>1.171201833214031</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.911625370864089</v>
@@ -19007,7 +18743,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.170490116217421</v>
+        <v>1.171040015268863</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.922779693400395</v>
@@ -19096,7 +18832,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.169525926555042</v>
+        <v>1.169126608509061</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.888074019647695</v>
@@ -19185,7 +18921,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.162809717406911</v>
+        <v>1.1606944883787</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.83354820079905</v>
@@ -19274,7 +19010,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.185656978842411</v>
+        <v>1.187129315856437</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.788100356714708</v>
@@ -19363,7 +19099,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.22402184523703</v>
+        <v>1.226767686012086</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.718778307768369</v>
@@ -19452,7 +19188,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.238260651990397</v>
+        <v>1.243245836683599</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.726824785304467</v>
@@ -19541,7 +19277,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.254543669833519</v>
+        <v>1.266479907533097</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.74772616482492</v>
@@ -19630,7 +19366,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.275993230442898</v>
+        <v>1.291176042630375</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.72974531198389</v>
@@ -19719,7 +19455,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.279906130178013</v>
+        <v>1.296189150913815</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.750197674459521</v>
@@ -19808,7 +19544,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.295954482329112</v>
+        <v>1.315559850936086</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.729794429335942</v>
@@ -19897,7 +19633,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.284701410025755</v>
+        <v>1.302868214714281</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.721173818953923</v>
@@ -19986,7 +19722,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.278070324722867</v>
+        <v>1.295439694730229</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.706288158828921</v>
@@ -20075,7 +19811,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.288261864374608</v>
+        <v>1.305865215523078</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.716164294389902</v>
@@ -20164,7 +19900,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.311487501367674</v>
+        <v>1.322138515961346</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.630428865239604</v>
@@ -20253,7 +19989,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.425465237096057</v>
+        <v>1.431341304154619</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.343272725331001</v>
@@ -20342,7 +20078,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.434649778223369</v>
+        <v>1.440315188404523</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.784898625989169</v>
@@ -20431,7 +20167,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.443865019179533</v>
+        <v>1.443000245418811</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.81780700242118</v>
@@ -20717,7 +20453,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.502765546753302</v>
+        <v>1.500231785831758</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.556980322040144</v>
@@ -20806,7 +20542,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.515675762220702</v>
+        <v>1.510780710548132</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.487408991274772</v>
@@ -20895,7 +20631,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.517510874264455</v>
+        <v>1.513157181776422</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.451220665935682</v>
@@ -20984,7 +20720,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.513705929898687</v>
+        <v>1.505498373515803</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.577887579272617</v>
@@ -21073,7 +20809,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526466370498714</v>
+        <v>1.51751711888489</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.727377649067305</v>
@@ -21162,7 +20898,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52462801214991</v>
+        <v>1.518687885314763</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.507965488328991</v>
@@ -21251,7 +20987,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.538309878346747</v>
+        <v>1.527729145101441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.452629319815128</v>
@@ -21340,7 +21076,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.557272619298937</v>
+        <v>1.534615353723858</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.623229458294549</v>
@@ -21429,7 +21165,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.543174116716154</v>
+        <v>1.525120398474121</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.504347705174768</v>
@@ -21518,7 +21254,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.587304371409016</v>
+        <v>1.56060068700346</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.296719639386902</v>
@@ -21607,7 +21343,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.59279439596812</v>
+        <v>1.563121763803797</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.475674724353095</v>
@@ -21696,7 +21432,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.600481634067315</v>
+        <v>1.559843276931176</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.624115777028043</v>
@@ -21785,7 +21521,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.6135556691372</v>
+        <v>1.563705398986993</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.595572916156499</v>
@@ -21874,7 +21610,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612319717184251</v>
+        <v>1.561864947697533</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.601844594377316</v>
@@ -21963,7 +21699,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.618648750022295</v>
+        <v>1.577409323859523</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.630254328759111</v>
@@ -22052,7 +21788,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.647780596878394</v>
+        <v>1.596803437613927</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.981208178380892</v>
@@ -22141,7 +21877,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.649121465966645</v>
+        <v>1.606870724533683</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.918918859861805</v>
@@ -22230,7 +21966,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.643470952533861</v>
+        <v>1.616105802071684</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.09711282711288</v>
@@ -22319,7 +22055,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.616047800455585</v>
+        <v>1.594710474878754</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.912452814734544</v>
@@ -22408,7 +22144,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.624234976155944</v>
+        <v>1.596734264908561</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.714529573353992</v>
@@ -22497,7 +22233,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620154643628982</v>
+        <v>1.591150274764265</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.820111830175589</v>
@@ -22586,7 +22322,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.605105802163611</v>
+        <v>1.579285091873067</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.978966157386318</v>
@@ -22675,7 +22411,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.604727608841394</v>
+        <v>1.587321579301288</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.836276697996648</v>
@@ -22764,7 +22500,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.490257557424955</v>
+        <v>1.486211548080493</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.913099183102769</v>
@@ -22853,7 +22589,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.457919778503741</v>
+        <v>1.456460984987084</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.920104058795918</v>
@@ -22942,7 +22678,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.466246246618578</v>
+        <v>1.46747774582857</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.928026992879182</v>
@@ -23031,7 +22767,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.468195015793144</v>
+        <v>1.477454653707238</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.913055323229988</v>
@@ -23120,7 +22856,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.473483838736956</v>
+        <v>1.483501790597355</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.924863103771826</v>
@@ -23209,7 +22945,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.475612696849929</v>
+        <v>1.479478066352563</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.929859897960984</v>
@@ -23298,7 +23034,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.491317954974682</v>
+        <v>1.493234440218175</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.911163059090489</v>
@@ -23387,7 +23123,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488602278883567</v>
+        <v>1.491691363600374</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.92101440458669</v>
@@ -23476,7 +23212,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486866652695358</v>
+        <v>1.487150938934297</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.928845398386906</v>
@@ -23565,7 +23301,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472644386801474</v>
+        <v>1.471297847735386</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.908991190281154</v>
@@ -23654,7 +23390,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.49288885868257</v>
+        <v>1.492029837484384</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.894218237128793</v>
@@ -23743,7 +23479,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.496217876674368</v>
+        <v>1.499988908300907</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.901821613296179</v>
@@ -23832,7 +23568,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.514247319698183</v>
+        <v>1.51971471762091</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.921956842833656</v>
@@ -23921,7 +23657,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.518287418619762</v>
+        <v>1.521358554015086</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.927083981122237</v>
@@ -24010,7 +23746,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.521744341084261</v>
+        <v>1.522675995064179</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.8964819559191</v>
@@ -24099,7 +23835,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.664717078267262</v>
+        <v>1.650021863180024</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.935296742841822</v>
@@ -24188,7 +23924,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.68605411920316</v>
+        <v>1.668625584829553</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.998642627102029</v>
@@ -24277,7 +24013,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.696441249461276</v>
+        <v>1.685239953119867</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.845920103792229</v>
@@ -24366,7 +24102,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.694849816858733</v>
+        <v>1.684661098673194</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.913541516647141</v>
@@ -24455,7 +24191,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625563474205813</v>
+        <v>1.623395198270063</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.363504018676765</v>
@@ -24544,7 +24280,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604196680265249</v>
+        <v>1.621496587896026</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.343455642315429</v>
@@ -24633,7 +24369,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.601517448318641</v>
+        <v>1.624926768258183</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.335031409798713</v>
@@ -24722,7 +24458,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604064229978509</v>
+        <v>1.626305947803671</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.352840496121963</v>
@@ -24811,7 +24547,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.597453591375794</v>
+        <v>1.623856826217948</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.385820050460794</v>
@@ -24900,7 +24636,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.602384103462044</v>
+        <v>1.628322123686639</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.378143541116964</v>
@@ -24989,7 +24725,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601576770505718</v>
+        <v>1.621361312100974</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.387281412680849</v>
@@ -25078,7 +24814,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596367781167143</v>
+        <v>1.620878805869937</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.142495600224098</v>
@@ -25167,7 +24903,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.587526546734494</v>
+        <v>1.611270070909944</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.337386863552658</v>
@@ -25256,7 +24992,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.60736805937027</v>
+        <v>1.626561200670305</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.371471890620676</v>
@@ -25345,7 +25081,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.600058706293552</v>
+        <v>1.616238023415367</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.418130324528853</v>
@@ -25434,7 +25170,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.583363307865901</v>
+        <v>1.597850229011808</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.366158380932511</v>
@@ -25523,7 +25259,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.583757860339281</v>
+        <v>1.59704298456755</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.376332828672779</v>
@@ -25612,7 +25348,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.56346039849161</v>
+        <v>1.567448871677424</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.282371644287912</v>
@@ -25701,7 +25437,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.548548268440297</v>
+        <v>1.553550538264509</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.259575800152253</v>
@@ -25790,7 +25526,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.622528742566885</v>
+        <v>1.618293550440548</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.28213349046682</v>
@@ -25879,7 +25615,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542117635083985</v>
+        <v>1.534609222992126</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.042738364130748</v>
@@ -25968,7 +25704,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.499230679125674</v>
+        <v>1.492854374078786</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.055922469482665</v>
@@ -26057,7 +25793,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.47893912336935</v>
+        <v>1.473546450919009</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.07470070090201</v>
@@ -26146,7 +25882,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.462876955044266</v>
+        <v>1.459423733343814</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.100529042356485</v>
@@ -26235,7 +25971,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.453940666691236</v>
+        <v>1.449994813704101</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.066790477195056</v>
@@ -26324,7 +26060,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.450553298515231</v>
+        <v>1.446151557201127</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.077414799049285</v>
@@ -26413,7 +26149,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.447593979753334</v>
+        <v>1.442554787095642</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.069402685057453</v>
@@ -26502,7 +26238,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.448767692939372</v>
+        <v>1.44135150830538</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.020766991801747</v>
@@ -26591,7 +26327,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.386627529708517</v>
+        <v>1.382959877491765</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.033864389176878</v>
@@ -26680,7 +26416,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.391252117167007</v>
+        <v>1.389696133338843</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.00567223636137</v>
@@ -26769,7 +26505,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.401132912427786</v>
+        <v>1.399385690442507</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.039343009274432</v>
@@ -26858,7 +26594,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.393629285501589</v>
+        <v>1.395327915052573</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.064673269743852</v>
@@ -26947,7 +26683,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.391178088237442</v>
+        <v>1.39367079620996</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.067929127190019</v>
@@ -27036,7 +26772,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.390876658736653</v>
+        <v>1.39269405664876</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.107549071237645</v>
@@ -27125,7 +26861,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.379617480306067</v>
+        <v>1.381847393463173</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.932813088120486</v>
@@ -27214,7 +26950,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.41960986872724</v>
+        <v>1.426756752497529</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.052158559470241</v>
@@ -27303,7 +27039,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.441853621215675</v>
+        <v>1.447229885334568</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.086816800991384</v>
@@ -27392,7 +27128,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.460259792513421</v>
+        <v>1.468838050736041</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.088565233068571</v>
@@ -27481,7 +27217,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.482737577188864</v>
+        <v>1.488708645109044</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.05766338190075</v>
@@ -27570,7 +27306,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.495104935859015</v>
+        <v>1.497693755072101</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.00535827550055</v>
@@ -27659,7 +27395,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.497725550922561</v>
+        <v>1.50634499961246</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.007417709438211</v>
@@ -27748,7 +27484,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.508871664537434</v>
+        <v>1.517754301624011</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.970996970990697</v>
@@ -27837,7 +27573,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.507218017303187</v>
+        <v>1.513719736986956</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.017520466701049</v>
@@ -27926,7 +27662,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.555357564957141</v>
+        <v>1.561656809329772</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.580214540104901</v>
@@ -28015,7 +27751,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.561640201484533</v>
+        <v>1.557269386982574</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.634453154485394</v>
@@ -28104,7 +27840,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.548749770349441</v>
+        <v>1.537558853202605</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.872506111382075</v>
@@ -28193,7 +27929,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.554875263408236</v>
+        <v>1.544371972823447</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.813288306315973</v>
@@ -28282,7 +28018,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.57052841976868</v>
+        <v>1.558522745493676</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.788053163619148</v>
@@ -28371,7 +28107,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.59123948316147</v>
+        <v>1.572295564865975</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.897543363039442</v>
@@ -28657,7 +28393,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.573402390314964</v>
+        <v>1.54623220663948</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.580340086458003</v>
@@ -28746,7 +28482,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.578501083788201</v>
+        <v>1.547256062757373</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.603864146804109</v>
@@ -28835,7 +28571,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.577722076966911</v>
+        <v>1.538176289379525</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.612821361257633</v>
@@ -28924,7 +28660,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.569730022730929</v>
+        <v>1.535106307760795</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.598240078473334</v>
@@ -29013,7 +28749,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.591098950746266</v>
+        <v>1.549854093904157</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.261225781014052</v>
@@ -29102,7 +28838,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.601684595502124</v>
+        <v>1.557247793784708</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.877489340419326</v>
@@ -29191,7 +28927,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619307378733496</v>
+        <v>1.568572026733715</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.972948405327859</v>
@@ -29280,7 +29016,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620254505400257</v>
+        <v>1.56590013039034</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.740758420847524</v>
@@ -29369,7 +29105,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.618457918117297</v>
+        <v>1.567938635836947</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.944089000296112</v>
@@ -29458,7 +29194,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630130583976738</v>
+        <v>1.580422470546326</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.672838339290807</v>
@@ -29547,7 +29283,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.624013139590185</v>
+        <v>1.575940211501952</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.767960995399321</v>
@@ -29636,7 +29372,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632797657226676</v>
+        <v>1.581871821327224</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.724241313767236</v>
@@ -29725,7 +29461,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.632059963792364</v>
+        <v>1.578807637991706</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.604242265936838</v>
@@ -29814,7 +29550,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.634221800296935</v>
+        <v>1.572738001206984</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.673660278134556</v>
@@ -29903,7 +29639,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.634925602980034</v>
+        <v>1.580886004060013</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.889520405041901</v>
@@ -29992,7 +29728,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.652182840618016</v>
+        <v>1.600226031289189</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.182147753042901</v>
@@ -30081,7 +29817,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.624002041098109</v>
+        <v>1.584721513205792</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.599557483357637</v>
@@ -30170,7 +29906,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.620834779814138</v>
+        <v>1.591563909960511</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.637097950444761</v>
@@ -30259,7 +29995,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614913047451151</v>
+        <v>1.584527095317896</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.589058863318964</v>
@@ -30348,7 +30084,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.610406262125425</v>
+        <v>1.573542441658707</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.525702320685314</v>
@@ -30437,7 +30173,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.611801630697021</v>
+        <v>1.57465282841153</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.642549209329841</v>
@@ -30526,7 +30262,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600661517120326</v>
+        <v>1.568030019101864</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.701897308639564</v>
@@ -30615,7 +30351,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.604258861666011</v>
+        <v>1.575966402927656</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.649026353004993</v>
@@ -30704,7 +30440,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601124959004038</v>
+        <v>1.572688532243716</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.625045491442841</v>
@@ -30793,7 +30529,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.607070958802543</v>
+        <v>1.581233153390517</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.639938998371543</v>
@@ -30882,7 +30618,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615701241697052</v>
+        <v>1.588425901821166</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.623546798921962</v>
@@ -30971,7 +30707,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.60815681595936</v>
+        <v>1.58304837963515</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.606392305830523</v>
@@ -31060,7 +30796,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.611418180223744</v>
+        <v>1.585275550535835</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.657134437074487</v>
@@ -31149,7 +30885,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.58418873277866</v>
+        <v>1.568922818177352</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.652076563240842</v>
@@ -31238,7 +30974,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588636491377192</v>
+        <v>1.568551738087171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.714345517616342</v>
@@ -31327,7 +31063,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.574073141995104</v>
+        <v>1.557290079480345</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.63938418338667</v>
@@ -31416,7 +31152,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.595848086866579</v>
+        <v>1.568624986904383</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.610698678305929</v>
@@ -31505,7 +31241,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594622585115446</v>
+        <v>1.570341506392341</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.622321936339521</v>
@@ -31594,7 +31330,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606561720216525</v>
+        <v>1.578321191794348</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.660198547577045</v>
@@ -31683,7 +31419,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.615818344317097</v>
+        <v>1.596840260036325</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.411799580950865</v>
@@ -31772,7 +31508,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613081765182646</v>
+        <v>1.595769621701272</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.576526759766834</v>
@@ -31861,7 +31597,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.613731818754957</v>
+        <v>1.593400836617579</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.549244838149822</v>
@@ -31950,7 +31686,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.606372897759041</v>
+        <v>1.588540175226299</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.641564882387477</v>
@@ -32039,7 +31775,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.61887259088488</v>
+        <v>1.601713930549197</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.486742041484351</v>
@@ -32128,7 +31864,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.600161217789394</v>
+        <v>1.587981037116634</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.596694462814742</v>
@@ -32217,7 +31953,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.582620104194914</v>
+        <v>1.570037780456846</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.794979397282686</v>
@@ -32306,7 +32042,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.56358889776383</v>
+        <v>1.559415713118198</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.689924264247303</v>
@@ -32395,7 +32131,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.572596180829706</v>
+        <v>1.563985478765803</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.370728902678589</v>
@@ -32484,7 +32220,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.573302319662776</v>
+        <v>1.572498373717469</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.930741461845533</v>
@@ -32573,7 +32309,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557334026743767</v>
+        <v>1.56594115265635</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.960607797476748</v>
@@ -32662,7 +32398,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565119365707367</v>
+        <v>1.572990354298748</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.032667705951253</v>
@@ -32751,7 +32487,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569329541959551</v>
+        <v>1.579284162589796</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.079692862207464</v>
@@ -32840,7 +32576,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57078179861445</v>
+        <v>1.576363857826961</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.891720778629093</v>
@@ -32929,7 +32665,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.571106564727129</v>
+        <v>1.575225861608197</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.029427754921912</v>
@@ -33018,7 +32754,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.554453827495207</v>
+        <v>1.562728482289429</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.714745907621027</v>
@@ -33107,7 +32843,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.556270659710605</v>
+        <v>1.56395102910483</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.852410942913927</v>
@@ -33196,7 +32932,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.560623437437468</v>
+        <v>1.562529310197066</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.515268878681964</v>
@@ -33285,7 +33021,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.540000503290455</v>
+        <v>1.544879193752654</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.54250061364278</v>
@@ -33374,7 +33110,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.534796600417629</v>
+        <v>1.536351626247453</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.554591389889786</v>
@@ -33463,7 +33199,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.54657724404133</v>
+        <v>1.537574971629849</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.555353598853405</v>
@@ -33552,7 +33288,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.563667461337764</v>
+        <v>1.547946209600881</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.399753130742211</v>
@@ -33641,7 +33377,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.578288537358507</v>
+        <v>1.558297983766581</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.380336308812197</v>
@@ -33730,7 +33466,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.602182975432439</v>
+        <v>1.57783877326767</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.452751745378642</v>
@@ -33819,7 +33555,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.591521896995251</v>
+        <v>1.561183862190587</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.556141557225847</v>
@@ -33908,7 +33644,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.59498729922224</v>
+        <v>1.563164964540287</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.528598772821309</v>
@@ -33997,7 +33733,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.57997208371532</v>
+        <v>1.546412838940868</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.607855990443062</v>
@@ -34086,7 +33822,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.564307326342501</v>
+        <v>1.534209532554246</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.52501753266782</v>
@@ -34175,7 +33911,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.550591389660219</v>
+        <v>1.526531979105441</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.48470404466998</v>
@@ -34264,7 +34000,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.541975489008739</v>
+        <v>1.515620563003677</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.575977241725007</v>
@@ -34353,7 +34089,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.552030787360621</v>
+        <v>1.524304569246765</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.561408776160379</v>
@@ -34442,7 +34178,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.554339724818395</v>
+        <v>1.521659626914216</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.481285366246921</v>
@@ -34531,7 +34267,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.554250884132636</v>
+        <v>1.518562343122277</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.787903709684112</v>
@@ -34620,7 +34356,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.574989200172876</v>
+        <v>1.534087857423224</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.559697788835595</v>
@@ -34709,7 +34445,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.5779308023719</v>
+        <v>1.535126627135466</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.794779783362859</v>
@@ -34798,7 +34534,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.558500227878296</v>
+        <v>1.530444630511415</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.45264096924521</v>
@@ -34887,7 +34623,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.556926573673728</v>
+        <v>1.530235553243052</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.688047992745413</v>
@@ -34976,7 +34712,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.550228413330468</v>
+        <v>1.523139220587732</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.681363347562402</v>
@@ -35065,7 +34801,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.531683151941069</v>
+        <v>1.504469346194933</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.631306817832765</v>
@@ -35154,7 +34890,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.546837547995773</v>
+        <v>1.522747345082551</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.610040783625956</v>
@@ -35243,7 +34979,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.546324775233518</v>
+        <v>1.522814487970177</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.747173586792488</v>
@@ -35332,7 +35068,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.564190098089829</v>
+        <v>1.541563238319383</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.485696442361712</v>
@@ -35421,7 +35157,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.572851286376161</v>
+        <v>1.552424749466957</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.607116558079011</v>
@@ -35510,7 +35246,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.589983201149655</v>
+        <v>1.561424879173124</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.796298186799522</v>
@@ -35599,7 +35335,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.589064218953599</v>
+        <v>1.568302892685787</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.67911312003935</v>
@@ -35688,7 +35424,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.58686874370839</v>
+        <v>1.569832653358808</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.592622054584599</v>
@@ -35777,7 +35513,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.590770503617782</v>
+        <v>1.575745873637056</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.729001631170878</v>
@@ -35866,7 +35602,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.575826310090307</v>
+        <v>1.577771394376344</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.73667016047282</v>
@@ -35955,7 +35691,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.576016477442002</v>
+        <v>1.576237553104565</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.710663328412827</v>
@@ -36044,7 +35780,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.57457669304157</v>
+        <v>1.573759451748795</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.728155713360815</v>
@@ -36133,7 +35869,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.601060301359892</v>
+        <v>1.597398665559791</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.039832501059806</v>
@@ -36222,7 +35958,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.606210630899394</v>
+        <v>1.596315128173715</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.329723673698789</v>
@@ -36311,7 +36047,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.615759303557374</v>
+        <v>1.607213370313543</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.118649969850878</v>
@@ -36597,7 +36333,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512796840836896</v>
+        <v>1.481914773259706</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.48870729599801</v>
@@ -36686,7 +36422,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523938237293156</v>
+        <v>1.488996031146572</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.523890471770321</v>
@@ -36775,7 +36511,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.524787345468684</v>
+        <v>1.488862334060872</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.511349270428296</v>
@@ -36864,7 +36600,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.526916052327485</v>
+        <v>1.489237287054846</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.500650406192159</v>
@@ -36953,7 +36689,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54766507659797</v>
+        <v>1.500262135859119</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.254489724522809</v>
@@ -37042,7 +36778,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.577927870257347</v>
+        <v>1.522568972356936</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.708195233926374</v>
@@ -37131,7 +36867,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.582310607308743</v>
+        <v>1.528418984083041</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.183463712807773</v>
@@ -37220,7 +36956,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.576601047464842</v>
+        <v>1.515435141700956</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.164818631254806</v>
@@ -37309,7 +37045,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.585755957827939</v>
+        <v>1.522772787394806</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.816867120359996</v>
@@ -37398,7 +37134,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56686035832631</v>
+        <v>1.508007674397718</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.95869532332498</v>
@@ -37487,7 +37223,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.554080956043364</v>
+        <v>1.500333394845548</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.838796054671071</v>
@@ -37576,7 +37312,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.553175067812414</v>
+        <v>1.486653541407861</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.787984689244402</v>
@@ -37665,7 +37401,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.572993912535728</v>
+        <v>1.49606403576538</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.548023826024872</v>
@@ -37754,7 +37490,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.584942200304815</v>
+        <v>1.499234519380171</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.819801975789047</v>
@@ -37843,7 +37579,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580821964373175</v>
+        <v>1.498107962540334</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.995870489277431</v>
@@ -37932,7 +37668,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.592529858898978</v>
+        <v>1.521134747112046</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.084943821190608</v>
@@ -38021,7 +37757,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574629541655216</v>
+        <v>1.52049680608898</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.483815216929326</v>
@@ -38110,7 +37846,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577658405091238</v>
+        <v>1.536028873389053</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.589125496189395</v>
@@ -38199,7 +37935,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.589292294228974</v>
+        <v>1.547403917182334</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.705708818984867</v>
@@ -38288,7 +38024,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.605379965162754</v>
+        <v>1.562791408344358</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.651895680881189</v>
@@ -38377,7 +38113,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.595815574084785</v>
+        <v>1.558698659053404</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.62023280021568</v>
@@ -38466,7 +38202,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594055213912274</v>
+        <v>1.563003154587133</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.636139706962722</v>
@@ -38555,7 +38291,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.60748078496229</v>
+        <v>1.585332092099188</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.659141816716642</v>
@@ -38644,7 +38380,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.50614128599913</v>
+        <v>1.499994888121883</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.926939128039412</v>
@@ -38733,7 +38469,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.522702509361907</v>
+        <v>1.517987987590261</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.946319595227751</v>
@@ -38822,7 +38558,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.534220570114672</v>
+        <v>1.530842015824428</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.937079682679411</v>
@@ -38911,7 +38647,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.530145463238807</v>
+        <v>1.540174005487229</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.932793848329389</v>
@@ -39000,7 +38736,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.524790629657847</v>
+        <v>1.537936691404965</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.952016990050274</v>
@@ -39089,7 +38825,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.509660907126182</v>
+        <v>1.527161998923644</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.946425747028762</v>
@@ -39178,7 +38914,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.51403628752393</v>
+        <v>1.532036119200385</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.951193254588771</v>
@@ -39267,7 +39003,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.511794978144527</v>
+        <v>1.525142116621618</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.968373769658124</v>
@@ -39356,7 +39092,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.524462952125215</v>
+        <v>1.533774257159702</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.929475246339185</v>
@@ -39445,7 +39181,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.515354951469612</v>
+        <v>1.524055457174178</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.939644004535194</v>
@@ -39534,7 +39270,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.506404588580026</v>
+        <v>1.517295609672002</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.918203992161414</v>
@@ -39623,7 +39359,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492602534210485</v>
+        <v>1.504321002755481</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.888286552370037</v>
@@ -39712,7 +39448,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.506136937398427</v>
+        <v>1.519956640870489</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.86899168449668</v>
@@ -39801,7 +39537,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.504250486806993</v>
+        <v>1.51126294038405</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.855871795302326</v>
@@ -39890,7 +39626,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.498168669317463</v>
+        <v>1.503039389174083</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.887238417538019</v>
@@ -39979,7 +39715,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576990387634789</v>
+        <v>1.574888770886719</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.503006489859799</v>
@@ -40068,7 +39804,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.55408068835247</v>
+        <v>1.549949257975337</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.428805630545623</v>
@@ -40157,7 +39893,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.543782543189443</v>
+        <v>1.540419949009936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.644912570478555</v>
@@ -40246,7 +39982,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.528835294527556</v>
+        <v>1.531043160646532</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.452066379333089</v>
@@ -40335,7 +40071,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.469271144792573</v>
+        <v>1.470321884734702</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.015082120804269</v>
@@ -40424,7 +40160,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.447837812220816</v>
+        <v>1.462971881794487</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.005555230649528</v>
@@ -40513,7 +40249,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.442784677678976</v>
+        <v>1.461585521557995</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.972998076066332</v>
@@ -40602,7 +40338,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.442477083446181</v>
+        <v>1.462902847797011</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.962730684848162</v>
@@ -40691,7 +40427,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.435488407044637</v>
+        <v>1.456739379471063</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.963198290838844</v>
@@ -40780,7 +40516,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.444732241568132</v>
+        <v>1.467176772449548</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.982408685428732</v>
@@ -40869,7 +40605,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.452914004255004</v>
+        <v>1.473146809107691</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.983969084697375</v>
@@ -40958,7 +40694,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.449130751830035</v>
+        <v>1.469637753140834</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.976810429715375</v>
@@ -41047,7 +40783,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.440590423310708</v>
+        <v>1.463548151697857</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.972989048110202</v>
@@ -41136,7 +40872,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.448183253576449</v>
+        <v>1.468715260727413</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.959801932591553</v>
@@ -41225,7 +40961,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.442953037842919</v>
+        <v>1.463198262807385</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.013618722773736</v>
@@ -41314,7 +41050,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.45820325524804</v>
+        <v>1.475800471829239</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.998850658648272</v>
@@ -41403,7 +41139,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.464844615520218</v>
+        <v>1.48163018443372</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.053392888276545</v>
@@ -41492,7 +41228,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.473088846486432</v>
+        <v>1.482694162005184</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.021489593674263</v>
@@ -41581,7 +41317,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.483925635300649</v>
+        <v>1.490894301561129</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.939731562502807</v>
@@ -41670,7 +41406,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.582099106713008</v>
+        <v>1.577776923396124</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.240346986780062</v>
@@ -41759,7 +41495,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.515528845634603</v>
+        <v>1.498851212071191</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.225025990579407</v>
@@ -41848,7 +41584,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.467063575191117</v>
+        <v>1.444604137362432</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.202625472374887</v>
@@ -41937,7 +41673,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.445269381002414</v>
+        <v>1.424873182417804</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.234522633013585</v>
@@ -42026,7 +41762,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.442965214089696</v>
+        <v>1.422075199241561</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.221782373693694</v>
@@ -42115,7 +41851,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.435370147236442</v>
+        <v>1.413573886441626</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.216195965332594</v>
@@ -42204,7 +41940,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.424564932134233</v>
+        <v>1.406191049871877</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.234566026866418</v>
@@ -42293,7 +42029,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.423956481096573</v>
+        <v>1.40584012092395</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.173423200264714</v>
@@ -42382,7 +42118,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.423165663911411</v>
+        <v>1.405416408415491</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.259027704089271</v>
@@ -42471,7 +42207,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.416668111177186</v>
+        <v>1.395354951903905</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.248838109364502</v>
@@ -42560,7 +42296,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.426210519473919</v>
+        <v>1.40253228727008</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.073284460623899</v>
@@ -42649,7 +42385,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.424613649419421</v>
+        <v>1.400817061165859</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.223696945411809</v>
@@ -42738,7 +42474,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.4087593240932</v>
+        <v>1.383241054679869</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.182696342413469</v>
@@ -42827,7 +42563,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.404353059807922</v>
+        <v>1.382439228692205</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.211994239269861</v>
@@ -42916,7 +42652,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.401271444467346</v>
+        <v>1.379567433152764</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.151147773229759</v>
@@ -43005,7 +42741,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.398472032526082</v>
+        <v>1.374260290822179</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.058656802187087</v>
@@ -43094,7 +42830,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.450404051179291</v>
+        <v>1.431503543887798</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.269270975237149</v>
@@ -43183,7 +42919,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.499422113782337</v>
+        <v>1.483891580289731</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.114965331329716</v>
@@ -43272,7 +43008,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.498217379462936</v>
+        <v>1.488672370434869</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.222547122298098</v>
@@ -43361,7 +43097,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.507634737462078</v>
+        <v>1.50205572886795</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.259366339741884</v>
@@ -43450,7 +43186,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.517250070174324</v>
+        <v>1.5092309123543</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.272408596120554</v>
@@ -43539,7 +43275,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.52678507285553</v>
+        <v>1.51755137292097</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.281618354700877</v>
@@ -43628,7 +43364,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.540603660887131</v>
+        <v>1.527345648607403</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.321000274713822</v>
@@ -43717,7 +43453,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.526974660566705</v>
+        <v>1.516833216632643</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.326403474975727</v>
@@ -43806,7 +43542,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.517468347728998</v>
+        <v>1.516574700563755</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.219036437122664</v>
@@ -43895,7 +43631,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.526302639159114</v>
+        <v>1.521983955418101</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.279904758004593</v>
@@ -43984,7 +43720,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.517930634919013</v>
+        <v>1.51490374641925</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.207284894940571</v>
@@ -44073,7 +43809,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.556245057409459</v>
+        <v>1.560934997734072</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.525721253600318</v>
@@ -44162,7 +43898,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.559597207592854</v>
+        <v>1.56029611236896</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.469744155072739</v>
@@ -44251,7 +43987,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.562722925728307</v>
+        <v>1.558727639802788</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.416331429015889</v>
@@ -44537,7 +44273,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.17857024735576</v>
+        <v>1.179322914618812</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.699394524371662</v>
@@ -44626,7 +44362,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.17662511559417</v>
+        <v>1.177876120818549</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.689864344177173</v>
@@ -44715,7 +44451,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.178584091305194</v>
+        <v>1.183079199959829</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.712133121929705</v>
@@ -44804,7 +44540,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.176634406766876</v>
+        <v>1.178877530876037</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.707578220341656</v>
@@ -44893,7 +44629,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.17144628994801</v>
+        <v>1.175919551208577</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.700819276705421</v>
@@ -44982,7 +44718,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.169445268256186</v>
+        <v>1.175009930748059</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.669462476160523</v>
@@ -45071,7 +44807,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.166204344280972</v>
+        <v>1.172813878169192</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.669912240101857</v>
@@ -45160,7 +44896,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.161951157318661</v>
+        <v>1.169902415112894</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.700852292614262</v>
@@ -45249,7 +44985,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.165620927183687</v>
+        <v>1.172978138480128</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.658050748755167</v>
@@ -45338,7 +45074,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.193614054089442</v>
+        <v>1.198930040036959</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.593538119502116</v>
@@ -45427,7 +45163,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.199020437096645</v>
+        <v>1.21092849714472</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.712948946883554</v>
@@ -45516,7 +45252,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.21488405280285</v>
+        <v>1.226517344820888</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.684998830043325</v>
@@ -45605,7 +45341,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.211529079163837</v>
+        <v>1.222961745755943</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.667645324147946</v>
@@ -45694,7 +45430,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.207160294568185</v>
+        <v>1.217725876614802</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.652692269807956</v>
@@ -45783,7 +45519,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.20334348517413</v>
+        <v>1.211702125203263</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.680543714558778</v>
@@ -45872,7 +45608,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.231411916065901</v>
+        <v>1.243893229121444</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.112048060926453</v>
@@ -45961,7 +45697,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.221197387069817</v>
+        <v>1.235343234097962</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.354906734146968</v>
@@ -46050,7 +45786,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.210417867835889</v>
+        <v>1.225182469489378</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.277346201364658</v>
@@ -46139,7 +45875,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.210828302588214</v>
+        <v>1.219880704690954</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.137133498892361</v>
@@ -46228,7 +45964,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.212091908278643</v>
+        <v>1.218853594373533</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.304316372025336</v>
@@ -46317,7 +46053,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.193113527601718</v>
+        <v>1.194953702660302</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.973229809171547</v>
@@ -46406,7 +46142,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.162682284721331</v>
+        <v>1.164450103186578</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.936809319639902</v>
@@ -46495,7 +46231,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.169249557596717</v>
+        <v>1.169601673756764</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.993818580343101</v>
@@ -46584,7 +46320,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.165252170258895</v>
+        <v>1.163292921806812</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.036253560764991</v>
@@ -46673,7 +46409,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.154737071321016</v>
+        <v>1.152657649558982</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.958021508503576</v>
@@ -46762,7 +46498,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.161615950854961</v>
+        <v>1.161834616401207</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.02355711727214</v>
@@ -46851,7 +46587,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.160107077009136</v>
+        <v>1.162053256617975</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.958268810822149</v>
@@ -46940,7 +46676,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.16431587186347</v>
+        <v>1.166180912793635</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.95270660910646</v>
@@ -47029,7 +46765,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.16494165598896</v>
+        <v>1.160852643400896</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.010285009214907</v>
@@ -47118,7 +46854,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.169233517220108</v>
+        <v>1.165520072148777</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.893837282267292</v>
@@ -47207,7 +46943,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.170484755059479</v>
+        <v>1.168708188349738</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.986735236328155</v>
@@ -47296,7 +47032,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.181458963823289</v>
+        <v>1.180063461335066</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.003398056814505</v>
@@ -47385,7 +47121,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.184532997491167</v>
+        <v>1.181997123136443</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.909413310059112</v>
@@ -47474,7 +47210,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.198678390680105</v>
+        <v>1.199995076394371</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.878768956990808</v>
@@ -47563,7 +47299,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.220802183310979</v>
+        <v>1.223367222793439</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.852015487838261</v>
@@ -47652,7 +47388,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.259313256101971</v>
+        <v>1.262649601729598</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.877934633741849</v>
@@ -47741,7 +47477,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.285413991439879</v>
+        <v>1.290072945229135</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.111990274639522</v>
@@ -47830,7 +47566,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.26797312793808</v>
+        <v>1.276671700360614</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.135900332943937</v>
@@ -47919,7 +47655,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.297050300851987</v>
+        <v>1.305265669258475</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.192006592704403</v>
@@ -48008,7 +47744,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.283948712195574</v>
+        <v>1.2937794468326</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.482341106115185</v>
@@ -48097,7 +47833,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.257389925852964</v>
+        <v>1.265170288593575</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.066750237951789</v>
@@ -48186,7 +47922,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.256440149536128</v>
+        <v>1.261603438323431</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.138893857359899</v>
@@ -48275,7 +48011,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.251638703726767</v>
+        <v>1.25077184804849</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.241988873697755</v>
@@ -48364,7 +48100,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.252039541011425</v>
+        <v>1.255976141670688</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.963261934291683</v>
@@ -48453,7 +48189,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.256010257602641</v>
+        <v>1.266141393966394</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.207245476023515</v>
@@ -48542,7 +48278,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.252016529974699</v>
+        <v>1.259344759400441</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.320377700166782</v>
@@ -48631,7 +48367,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.249946619664464</v>
+        <v>1.256256582234768</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.127285235441555</v>
@@ -48720,7 +48456,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.251747845296286</v>
+        <v>1.255474675055857</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.123624226136319</v>
@@ -48809,7 +48545,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.243949091194271</v>
+        <v>1.244269815747493</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.207883272962913</v>
@@ -48898,7 +48634,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.207504462875283</v>
+        <v>1.208145150186898</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.207103977748503</v>
@@ -48987,7 +48723,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.184114098878408</v>
+        <v>1.17763028333656</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.990192326026014</v>
@@ -49076,7 +48812,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.194738657888318</v>
+        <v>1.185302309424427</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.978520611869816</v>
@@ -49165,7 +48901,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.170379390861217</v>
+        <v>1.160096668831277</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.917606429015429</v>
@@ -49254,7 +48990,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.153325121120838</v>
+        <v>1.144974502812612</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.966030170148367</v>
@@ -49343,7 +49079,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.162695995488228</v>
+        <v>1.15238330652804</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.858701961850938</v>
@@ -49432,7 +49168,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.157128410221178</v>
+        <v>1.146384686391552</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.949710032784665</v>
@@ -49521,7 +49257,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.152385287220093</v>
+        <v>1.140871622430887</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.946036105501642</v>
@@ -49610,7 +49346,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.160294703005477</v>
+        <v>1.15436999281329</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.008256200210198</v>
@@ -49699,7 +49435,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.16502455985355</v>
+        <v>1.153899523767852</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.979481423149326</v>
@@ -49788,7 +49524,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.158554339462095</v>
+        <v>1.146141326129021</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.948378304192647</v>
@@ -49877,7 +49613,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.154846530544335</v>
+        <v>1.138956607114833</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.003339194200754</v>
@@ -49966,7 +49702,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.151044678891037</v>
+        <v>1.136175930450691</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.035357512574346</v>
@@ -50055,7 +49791,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.145905425160795</v>
+        <v>1.132066482744631</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.008194082326324</v>
@@ -50144,7 +49880,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.140873738376028</v>
+        <v>1.125909246633393</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.929506615707241</v>
@@ -50233,7 +49969,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.151185929194894</v>
+        <v>1.134448310573007</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.982245170213634</v>
@@ -50322,7 +50058,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.151693656330155</v>
+        <v>1.136379847077296</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.935136812352819</v>
@@ -50411,7 +50147,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.134010719607634</v>
+        <v>1.117962974753527</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.827857397174611</v>
@@ -50500,7 +50236,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.148416640394734</v>
+        <v>1.13256823095298</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.819993250360757</v>
@@ -50589,7 +50325,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.152639550149707</v>
+        <v>1.136373047738994</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.234638736893425</v>
@@ -50678,7 +50414,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.15223753523613</v>
+        <v>1.140764814397073</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.156547174876518</v>
@@ -50767,7 +50503,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.145397153671818</v>
+        <v>1.133985622890087</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.213327876376994</v>
@@ -50856,7 +50592,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.155491986745715</v>
+        <v>1.143747209069528</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.16566801570126</v>
@@ -50945,7 +50681,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.142537686681117</v>
+        <v>1.129310272380621</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.174013444492097</v>
@@ -51034,7 +50770,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.142137254554417</v>
+        <v>1.134186325451359</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.138667661964292</v>
@@ -51123,7 +50859,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.137391915412879</v>
+        <v>1.12875530938254</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.140775572778709</v>
@@ -51212,7 +50948,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.137202456554273</v>
+        <v>1.130429315121873</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.139250722341111</v>
@@ -51301,7 +51037,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.137790341087741</v>
+        <v>1.13129463669172</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.093949738698491</v>
@@ -51390,7 +51126,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.143986982592068</v>
+        <v>1.13376480146463</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.115015983815396</v>
@@ -51479,7 +51215,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.139553434868043</v>
+        <v>1.133900402039902</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.980712671060117</v>
@@ -51568,7 +51304,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.140203602540035</v>
+        <v>1.136693818127559</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.81411425048404</v>
@@ -51657,7 +51393,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.140276275276162</v>
+        <v>1.13402135642184</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.067037332240513</v>
@@ -51746,7 +51482,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.143451411611895</v>
+        <v>1.144849320909488</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.933360667631219</v>
@@ -51835,7 +51571,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.145296560690018</v>
+        <v>1.147097225741986</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.081204455564328</v>
@@ -51924,7 +51660,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.150954977813361</v>
+        <v>1.143107722268186</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.103784955905076</v>
@@ -52013,7 +51749,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.140954620895416</v>
+        <v>1.135095173733355</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.110715144615301</v>
@@ -52102,7 +51838,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.156212453999098</v>
+        <v>1.150790234608079</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.068161749045918</v>
@@ -52191,7 +51927,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.159581149001975</v>
+        <v>1.154223147540424</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.125959261436825</v>
